--- a/master_codelist_BNF_0205_HTNandHF_clinicianinitials.xlsx
+++ b/master_codelist_BNF_0205_HTNandHF_clinicianinitials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Group_work\Emily\Product_browsing_study_data\Codelists\Github_publication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583E5320-CE3D-439A-A73B-07FA1591395F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9067E5A-CC35-482F-813A-867A85EAEF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="15" windowWidth="27135" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10251" uniqueCount="2238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10397" uniqueCount="2239">
   <si>
     <t>prodcodeid</t>
   </si>
@@ -6734,6 +6734,9 @@
   </si>
   <si>
     <t>SearchC_bnfsearch205</t>
+  </si>
+  <si>
+    <t>≤100</t>
   </si>
 </sst>
 </file>
@@ -7248,7 +7251,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ12" sqref="AJ12"/>
+      <selection pane="bottomLeft" activeCell="K557" sqref="K557"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7256,7 +7259,7 @@
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="3" max="9" width="4.7109375" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="10"/>
     <col min="12" max="13" width="4.7109375" style="2" customWidth="1"/>
     <col min="14" max="14" width="9.140625" style="10"/>
@@ -7303,7 +7306,7 @@
       <c r="I1" t="s">
         <v>2195</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>2211</v>
       </c>
       <c r="K1" s="12" t="s">
@@ -7407,8 +7410,8 @@
       <c r="I2" t="s">
         <v>1200</v>
       </c>
-      <c r="J2" s="1">
-        <v>100</v>
+      <c r="J2" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K2" s="8">
         <v>1</v>
@@ -7485,8 +7488,8 @@
       <c r="I3" t="s">
         <v>2196</v>
       </c>
-      <c r="J3" s="1">
-        <v>1</v>
+      <c r="J3" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K3" s="8">
         <v>1</v>
@@ -7565,8 +7568,8 @@
       <c r="I4" t="s">
         <v>2196</v>
       </c>
-      <c r="J4" s="1">
-        <v>1</v>
+      <c r="J4" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K4" s="8">
         <v>1</v>
@@ -7645,8 +7648,8 @@
       <c r="I5" t="s">
         <v>2196</v>
       </c>
-      <c r="J5" s="1">
-        <v>100</v>
+      <c r="J5" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K5" s="8">
         <v>1</v>
@@ -7725,7 +7728,7 @@
       <c r="I6" t="s">
         <v>2196</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="3">
         <v>200</v>
       </c>
       <c r="K6" s="8">
@@ -7805,7 +7808,7 @@
       <c r="I7" t="s">
         <v>2196</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="3">
         <v>70000</v>
       </c>
       <c r="K7" s="8">
@@ -7885,7 +7888,7 @@
       <c r="I8" t="s">
         <v>1200</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="3">
         <v>10000</v>
       </c>
       <c r="K8" s="8">
@@ -7961,7 +7964,7 @@
       <c r="I9" t="s">
         <v>2196</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="3">
         <v>600</v>
       </c>
       <c r="K9" s="8">
@@ -8041,7 +8044,7 @@
       <c r="I10" t="s">
         <v>2196</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="3">
         <v>200</v>
       </c>
       <c r="K10" s="8">
@@ -8121,7 +8124,7 @@
       <c r="I11" t="s">
         <v>2197</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="3">
         <v>200000</v>
       </c>
       <c r="K11" s="8">
@@ -8199,7 +8202,7 @@
       <c r="I12" t="s">
         <v>1200</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="3">
         <v>8000</v>
       </c>
       <c r="K12" s="8">
@@ -8277,7 +8280,7 @@
       <c r="I13" t="s">
         <v>2197</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="3">
         <v>400000</v>
       </c>
       <c r="K13" s="8">
@@ -8355,7 +8358,7 @@
       <c r="I14" t="s">
         <v>1200</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="3">
         <v>80000</v>
       </c>
       <c r="K14" s="8">
@@ -8433,8 +8436,8 @@
       <c r="I15" t="s">
         <v>1200</v>
       </c>
-      <c r="J15" s="1">
-        <v>10</v>
+      <c r="J15" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K15" s="8">
         <v>1</v>
@@ -8511,8 +8514,8 @@
       <c r="I16" t="s">
         <v>1200</v>
       </c>
-      <c r="J16" s="1">
-        <v>8</v>
+      <c r="J16" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K16" s="8">
         <v>1</v>
@@ -8589,8 +8592,8 @@
       <c r="I17" t="s">
         <v>1200</v>
       </c>
-      <c r="J17" s="1">
-        <v>100</v>
+      <c r="J17" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K17" s="8">
         <v>1</v>
@@ -8667,8 +8670,8 @@
       <c r="I18" t="s">
         <v>1200</v>
       </c>
-      <c r="J18" s="1">
-        <v>40</v>
+      <c r="J18" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K18" s="8">
         <v>1</v>
@@ -8745,8 +8748,8 @@
       <c r="I19" t="s">
         <v>1200</v>
       </c>
-      <c r="J19" s="1">
-        <v>10</v>
+      <c r="J19" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K19" s="8">
         <v>1</v>
@@ -8823,7 +8826,7 @@
       <c r="I20" t="s">
         <v>1200</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="3">
         <v>2000</v>
       </c>
       <c r="K20" s="8">
@@ -8901,7 +8904,7 @@
       <c r="I21" t="s">
         <v>2198</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="3">
         <v>7000</v>
       </c>
       <c r="K21" s="8">
@@ -8979,7 +8982,7 @@
       <c r="I22" t="s">
         <v>1200</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="3">
         <v>300</v>
       </c>
       <c r="K22" s="8">
@@ -9057,7 +9060,7 @@
       <c r="I23" t="s">
         <v>2198</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="3">
         <v>200</v>
       </c>
       <c r="K23" s="8">
@@ -9135,8 +9138,8 @@
       <c r="I24" t="s">
         <v>1200</v>
       </c>
-      <c r="J24" s="1">
-        <v>30</v>
+      <c r="J24" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K24" s="8">
         <v>1</v>
@@ -9213,7 +9216,7 @@
       <c r="I25" t="s">
         <v>1200</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="3">
         <v>200</v>
       </c>
       <c r="K25" s="8">
@@ -9291,7 +9294,7 @@
       <c r="I26" t="s">
         <v>2196</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="3">
         <v>500000</v>
       </c>
       <c r="K26" s="8">
@@ -9371,8 +9374,8 @@
       <c r="I27" t="s">
         <v>1200</v>
       </c>
-      <c r="J27" s="1">
-        <v>20</v>
+      <c r="J27" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K27" s="8">
         <v>1</v>
@@ -9449,7 +9452,7 @@
       <c r="I28" t="s">
         <v>2196</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="3">
         <v>300000</v>
       </c>
       <c r="K28" s="8">
@@ -9529,7 +9532,7 @@
       <c r="I29" t="s">
         <v>1200</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="3">
         <v>200</v>
       </c>
       <c r="K29" s="8">
@@ -9605,8 +9608,8 @@
       <c r="I30" t="s">
         <v>1200</v>
       </c>
-      <c r="J30" s="1">
-        <v>40</v>
+      <c r="J30" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K30" s="8">
         <v>1</v>
@@ -9681,8 +9684,8 @@
       <c r="I31" t="s">
         <v>2196</v>
       </c>
-      <c r="J31" s="1">
-        <v>90</v>
+      <c r="J31" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K31" s="8">
         <v>1</v>
@@ -9761,8 +9764,8 @@
       <c r="I32" t="s">
         <v>1200</v>
       </c>
-      <c r="J32" s="1">
-        <v>2</v>
+      <c r="J32" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K32" s="8">
         <v>1</v>
@@ -9839,8 +9842,8 @@
       <c r="I33" t="s">
         <v>1200</v>
       </c>
-      <c r="J33" s="1">
-        <v>10</v>
+      <c r="J33" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K33" s="8">
         <v>1</v>
@@ -9917,8 +9920,8 @@
       <c r="I34" t="s">
         <v>1200</v>
       </c>
-      <c r="J34" s="1">
-        <v>4</v>
+      <c r="J34" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K34" s="8">
         <v>1</v>
@@ -9995,7 +9998,7 @@
       <c r="I35" t="s">
         <v>2196</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J35" s="3">
         <v>2000</v>
       </c>
       <c r="K35" s="8">
@@ -10075,7 +10078,7 @@
       <c r="I36" t="s">
         <v>2196</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J36" s="3">
         <v>900</v>
       </c>
       <c r="K36" s="8">
@@ -10155,7 +10158,7 @@
       <c r="I37" t="s">
         <v>2196</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J37" s="3">
         <v>1000</v>
       </c>
       <c r="K37" s="8">
@@ -10235,7 +10238,7 @@
       <c r="I38" t="s">
         <v>2196</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J38" s="3">
         <v>400</v>
       </c>
       <c r="K38" s="8">
@@ -10315,7 +10318,7 @@
       <c r="I39" t="s">
         <v>2196</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J39" s="3">
         <v>60000</v>
       </c>
       <c r="K39" s="8">
@@ -10395,7 +10398,7 @@
       <c r="I40" t="s">
         <v>2196</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J40" s="3">
         <v>40000</v>
       </c>
       <c r="K40" s="8">
@@ -10475,7 +10478,7 @@
       <c r="I41" t="s">
         <v>2196</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J41" s="3">
         <v>70000</v>
       </c>
       <c r="K41" s="8">
@@ -10555,8 +10558,8 @@
       <c r="I42" t="s">
         <v>2197</v>
       </c>
-      <c r="J42" s="1">
-        <v>100</v>
+      <c r="J42" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K42" s="8">
         <v>1</v>
@@ -10633,8 +10636,8 @@
       <c r="I43" t="s">
         <v>2197</v>
       </c>
-      <c r="J43" s="1">
-        <v>20</v>
+      <c r="J43" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K43" s="8">
         <v>1</v>
@@ -10711,8 +10714,8 @@
       <c r="I44" t="s">
         <v>2196</v>
       </c>
-      <c r="J44" s="1">
-        <v>6</v>
+      <c r="J44" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K44" s="8">
         <v>1</v>
@@ -10791,7 +10794,7 @@
       <c r="I45" t="s">
         <v>1200</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
       <c r="K45" s="8">
@@ -10869,7 +10872,7 @@
       <c r="I46" t="s">
         <v>2196</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J46" s="3">
         <v>100</v>
       </c>
       <c r="K46" s="8">
@@ -10949,7 +10952,7 @@
       <c r="I47" t="s">
         <v>2196</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J47" s="3">
         <v>500</v>
       </c>
       <c r="K47" s="8">
@@ -11029,8 +11032,8 @@
       <c r="I48" t="s">
         <v>2196</v>
       </c>
-      <c r="J48" s="1">
-        <v>6</v>
+      <c r="J48" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K48" s="8">
         <v>1</v>
@@ -11109,8 +11112,8 @@
       <c r="I49" t="s">
         <v>2196</v>
       </c>
-      <c r="J49" s="1">
-        <v>20</v>
+      <c r="J49" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K49" s="8">
         <v>1</v>
@@ -11189,8 +11192,8 @@
       <c r="I50" t="s">
         <v>2196</v>
       </c>
-      <c r="J50" s="1">
-        <v>20</v>
+      <c r="J50" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K50" s="8">
         <v>1</v>
@@ -11269,8 +11272,8 @@
       <c r="I51" t="s">
         <v>2196</v>
       </c>
-      <c r="J51" s="1">
-        <v>1</v>
+      <c r="J51" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K51" s="8">
         <v>1</v>
@@ -11349,8 +11352,8 @@
       <c r="I52" t="s">
         <v>2196</v>
       </c>
-      <c r="J52" s="1">
-        <v>10</v>
+      <c r="J52" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K52" s="8">
         <v>1</v>
@@ -11429,7 +11432,7 @@
       <c r="I53" t="s">
         <v>2197</v>
       </c>
-      <c r="J53" s="1">
+      <c r="J53" s="3">
         <v>2000</v>
       </c>
       <c r="K53" s="8">
@@ -11507,7 +11510,7 @@
       <c r="I54" t="s">
         <v>2197</v>
       </c>
-      <c r="J54" s="1">
+      <c r="J54" s="3">
         <v>6000000</v>
       </c>
       <c r="K54" s="8">
@@ -11585,7 +11588,7 @@
       <c r="I55" t="s">
         <v>1200</v>
       </c>
-      <c r="J55" s="1">
+      <c r="J55" s="3">
         <v>1000</v>
       </c>
       <c r="K55" s="8">
@@ -11663,7 +11666,7 @@
       <c r="I56" t="s">
         <v>2196</v>
       </c>
-      <c r="J56" s="1">
+      <c r="J56" s="3">
         <v>2000</v>
       </c>
       <c r="K56" s="8">
@@ -11743,8 +11746,8 @@
       <c r="I57" t="s">
         <v>1200</v>
       </c>
-      <c r="J57" s="1">
-        <v>70</v>
+      <c r="J57" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K57" s="8">
         <v>1</v>
@@ -11821,7 +11824,7 @@
       <c r="I58" t="s">
         <v>2199</v>
       </c>
-      <c r="J58" s="1">
+      <c r="J58" s="3">
         <v>7000</v>
       </c>
       <c r="K58" s="8">
@@ -11901,7 +11904,7 @@
       <c r="I59" t="s">
         <v>2197</v>
       </c>
-      <c r="J59" s="1">
+      <c r="J59" s="3">
         <v>200</v>
       </c>
       <c r="K59" s="8">
@@ -11979,7 +11982,7 @@
       <c r="I60" t="s">
         <v>2197</v>
       </c>
-      <c r="J60" s="1">
+      <c r="J60" s="3">
         <v>500000</v>
       </c>
       <c r="K60" s="8">
@@ -12057,7 +12060,7 @@
       <c r="I61" t="s">
         <v>1200</v>
       </c>
-      <c r="J61" s="1">
+      <c r="J61" s="3">
         <v>300</v>
       </c>
       <c r="K61" s="8">
@@ -12135,7 +12138,7 @@
       <c r="I62" t="s">
         <v>1200</v>
       </c>
-      <c r="J62" s="1">
+      <c r="J62" s="3">
         <v>1000</v>
       </c>
       <c r="K62" s="8">
@@ -12213,7 +12216,7 @@
       <c r="I63" t="s">
         <v>2197</v>
       </c>
-      <c r="J63" s="1">
+      <c r="J63" s="3">
         <v>1000</v>
       </c>
       <c r="K63" s="8">
@@ -12291,7 +12294,7 @@
       <c r="I64" t="s">
         <v>2197</v>
       </c>
-      <c r="J64" s="1">
+      <c r="J64" s="3">
         <v>4000000</v>
       </c>
       <c r="K64" s="8">
@@ -12369,8 +12372,8 @@
       <c r="I65" t="s">
         <v>1200</v>
       </c>
-      <c r="J65" s="1">
-        <v>90</v>
+      <c r="J65" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K65" s="8">
         <v>1</v>
@@ -12447,8 +12450,8 @@
       <c r="I66" t="s">
         <v>1200</v>
       </c>
-      <c r="J66" s="1">
-        <v>30</v>
+      <c r="J66" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K66" s="8">
         <v>1</v>
@@ -12525,8 +12528,8 @@
       <c r="I67" t="s">
         <v>1200</v>
       </c>
-      <c r="J67" s="1">
-        <v>3</v>
+      <c r="J67" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K67" s="8">
         <v>1</v>
@@ -12603,7 +12606,7 @@
       <c r="I68" t="s">
         <v>2197</v>
       </c>
-      <c r="J68" s="1">
+      <c r="J68" s="3">
         <v>800000</v>
       </c>
       <c r="K68" s="8">
@@ -12681,7 +12684,7 @@
       <c r="I69" t="s">
         <v>1200</v>
       </c>
-      <c r="J69" s="1">
+      <c r="J69" s="3">
         <v>20000</v>
       </c>
       <c r="K69" s="8">
@@ -12759,7 +12762,7 @@
       <c r="I70" t="s">
         <v>2197</v>
       </c>
-      <c r="J70" s="1">
+      <c r="J70" s="3">
         <v>2000000</v>
       </c>
       <c r="K70" s="8">
@@ -12837,7 +12840,7 @@
       <c r="I71" t="s">
         <v>1200</v>
       </c>
-      <c r="J71" s="1">
+      <c r="J71" s="3">
         <v>300000</v>
       </c>
       <c r="K71" s="8">
@@ -12915,8 +12918,8 @@
       <c r="I72" t="s">
         <v>2196</v>
       </c>
-      <c r="J72" s="1">
-        <v>3</v>
+      <c r="J72" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K72" s="8">
         <v>1</v>
@@ -12995,8 +12998,8 @@
       <c r="I73" t="s">
         <v>2196</v>
       </c>
-      <c r="J73" s="1">
-        <v>3</v>
+      <c r="J73" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K73" s="8">
         <v>1</v>
@@ -13075,8 +13078,8 @@
       <c r="I74" t="s">
         <v>2196</v>
       </c>
-      <c r="J74" s="1">
-        <v>6</v>
+      <c r="J74" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K74" s="8">
         <v>1</v>
@@ -13155,7 +13158,7 @@
       <c r="I75" t="s">
         <v>2197</v>
       </c>
-      <c r="J75" s="1">
+      <c r="J75" s="3">
         <v>200000</v>
       </c>
       <c r="K75" s="8">
@@ -13233,7 +13236,7 @@
       <c r="I76" t="s">
         <v>2197</v>
       </c>
-      <c r="J76" s="1">
+      <c r="J76" s="3">
         <v>30000</v>
       </c>
       <c r="K76" s="8">
@@ -13311,7 +13314,7 @@
       <c r="I77" t="s">
         <v>2197</v>
       </c>
-      <c r="J77" s="1">
+      <c r="J77" s="3">
         <v>200000</v>
       </c>
       <c r="K77" s="8">
@@ -13389,8 +13392,8 @@
       <c r="I78" t="s">
         <v>1200</v>
       </c>
-      <c r="J78" s="1">
-        <v>7</v>
+      <c r="J78" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K78" s="8">
         <v>1</v>
@@ -13467,8 +13470,8 @@
       <c r="I79" t="s">
         <v>1200</v>
       </c>
-      <c r="J79" s="1">
-        <v>5</v>
+      <c r="J79" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K79" s="8">
         <v>1</v>
@@ -13545,8 +13548,8 @@
       <c r="I80" t="s">
         <v>2196</v>
       </c>
-      <c r="J80" s="1">
-        <v>5</v>
+      <c r="J80" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K80" s="8">
         <v>1</v>
@@ -13625,8 +13628,8 @@
       <c r="I81" t="s">
         <v>2196</v>
       </c>
-      <c r="J81" s="1">
-        <v>4</v>
+      <c r="J81" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K81" s="8">
         <v>1</v>
@@ -13705,8 +13708,8 @@
       <c r="I82" t="s">
         <v>2196</v>
       </c>
-      <c r="J82" s="1">
-        <v>2</v>
+      <c r="J82" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K82" s="8">
         <v>1</v>
@@ -13785,8 +13788,8 @@
       <c r="I83" t="s">
         <v>1200</v>
       </c>
-      <c r="J83" s="1">
-        <v>20</v>
+      <c r="J83" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K83" s="8">
         <v>1</v>
@@ -13863,8 +13866,8 @@
       <c r="I84" t="s">
         <v>1200</v>
       </c>
-      <c r="J84" s="1">
-        <v>300</v>
+      <c r="J84" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K84" s="8">
         <v>1</v>
@@ -13939,8 +13942,8 @@
       <c r="I85" t="s">
         <v>1200</v>
       </c>
-      <c r="J85" s="1">
-        <v>4</v>
+      <c r="J85" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K85" s="8">
         <v>1</v>
@@ -14017,8 +14020,8 @@
       <c r="I86" t="s">
         <v>2196</v>
       </c>
-      <c r="J86" s="1">
-        <v>9</v>
+      <c r="J86" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K86" s="8">
         <v>1</v>
@@ -14097,8 +14100,8 @@
       <c r="I87" t="s">
         <v>1200</v>
       </c>
-      <c r="J87" s="1">
-        <v>30</v>
+      <c r="J87" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K87" s="8">
         <v>1</v>
@@ -14175,8 +14178,8 @@
       <c r="I88" t="s">
         <v>1200</v>
       </c>
-      <c r="J88" s="1">
-        <v>7</v>
+      <c r="J88" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K88" s="8">
         <v>1</v>
@@ -14253,8 +14256,8 @@
       <c r="I89" t="s">
         <v>1200</v>
       </c>
-      <c r="J89" s="1">
-        <v>4</v>
+      <c r="J89" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K89" s="8">
         <v>1</v>
@@ -14331,8 +14334,8 @@
       <c r="I90" s="14" t="s">
         <v>2196</v>
       </c>
-      <c r="J90" s="15">
-        <v>30</v>
+      <c r="J90" s="17" t="s">
+        <v>2238</v>
       </c>
       <c r="K90" s="16">
         <v>1</v>
@@ -14409,7 +14412,7 @@
       <c r="I91" t="s">
         <v>2199</v>
       </c>
-      <c r="J91" s="1">
+      <c r="J91" s="3">
         <v>100000</v>
       </c>
       <c r="K91" s="8"/>
@@ -14489,7 +14492,7 @@
       <c r="I92" t="s">
         <v>2199</v>
       </c>
-      <c r="J92" s="1">
+      <c r="J92" s="3">
         <v>30000</v>
       </c>
       <c r="K92" s="8"/>
@@ -14569,7 +14572,7 @@
       <c r="I93" t="s">
         <v>1200</v>
       </c>
-      <c r="J93" s="1">
+      <c r="J93" s="3">
         <v>400</v>
       </c>
       <c r="K93" s="8"/>
@@ -14645,7 +14648,7 @@
       <c r="I94" t="s">
         <v>1200</v>
       </c>
-      <c r="J94" s="1">
+      <c r="J94" s="3">
         <v>20000</v>
       </c>
       <c r="K94" s="8"/>
@@ -14721,7 +14724,7 @@
       <c r="I95" t="s">
         <v>2199</v>
       </c>
-      <c r="J95" s="1">
+      <c r="J95" s="3">
         <v>20000</v>
       </c>
       <c r="K95" s="8"/>
@@ -14801,7 +14804,7 @@
       <c r="I96" t="s">
         <v>2199</v>
       </c>
-      <c r="J96" s="1">
+      <c r="J96" s="3">
         <v>2000</v>
       </c>
       <c r="K96" s="8"/>
@@ -14881,7 +14884,7 @@
       <c r="I97" t="s">
         <v>1200</v>
       </c>
-      <c r="J97" s="1">
+      <c r="J97" s="3">
         <v>40</v>
       </c>
       <c r="K97" s="8"/>
@@ -14957,7 +14960,7 @@
       <c r="I98" t="s">
         <v>1200</v>
       </c>
-      <c r="J98" s="1">
+      <c r="J98" s="3">
         <v>2000</v>
       </c>
       <c r="K98" s="8"/>
@@ -15033,7 +15036,7 @@
       <c r="I99" t="s">
         <v>2200</v>
       </c>
-      <c r="J99" s="1">
+      <c r="J99" s="3">
         <v>200000</v>
       </c>
       <c r="K99" s="8"/>
@@ -15111,7 +15114,7 @@
       <c r="I100" t="s">
         <v>1200</v>
       </c>
-      <c r="J100" s="1">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
       <c r="K100" s="8"/>
@@ -15189,7 +15192,7 @@
       <c r="I101" t="s">
         <v>1200</v>
       </c>
-      <c r="J101" s="1">
+      <c r="J101" s="3">
         <v>3000</v>
       </c>
       <c r="K101" s="8"/>
@@ -15267,7 +15270,7 @@
       <c r="I102" t="s">
         <v>2200</v>
       </c>
-      <c r="J102" s="1">
+      <c r="J102" s="3">
         <v>2000000</v>
       </c>
       <c r="K102" s="8"/>
@@ -15345,7 +15348,7 @@
       <c r="I103" t="s">
         <v>2200</v>
       </c>
-      <c r="J103" s="1">
+      <c r="J103" s="3">
         <v>5000</v>
       </c>
       <c r="K103" s="8"/>
@@ -15423,7 +15426,7 @@
       <c r="I104" t="s">
         <v>1200</v>
       </c>
-      <c r="J104" s="1">
+      <c r="J104" s="3">
         <v>3000</v>
       </c>
       <c r="K104" s="8"/>
@@ -15501,7 +15504,7 @@
       <c r="I105" t="s">
         <v>1200</v>
       </c>
-      <c r="J105" s="1">
+      <c r="J105" s="3">
         <v>5000</v>
       </c>
       <c r="K105" s="8"/>
@@ -15579,7 +15582,7 @@
       <c r="I106" t="s">
         <v>1200</v>
       </c>
-      <c r="J106" s="1">
+      <c r="J106" s="3">
         <v>700</v>
       </c>
       <c r="K106" s="8"/>
@@ -15657,7 +15660,7 @@
       <c r="I107" t="s">
         <v>2201</v>
       </c>
-      <c r="J107" s="1">
+      <c r="J107" s="3">
         <v>300000</v>
       </c>
       <c r="K107" s="8"/>
@@ -15735,7 +15738,7 @@
       <c r="I108" t="s">
         <v>2202</v>
       </c>
-      <c r="J108" s="1">
+      <c r="J108" s="3">
         <v>4000</v>
       </c>
       <c r="K108" s="8"/>
@@ -15813,7 +15816,7 @@
       <c r="I109" t="s">
         <v>2202</v>
       </c>
-      <c r="J109" s="1">
+      <c r="J109" s="3">
         <v>4000</v>
       </c>
       <c r="K109" s="8"/>
@@ -15891,7 +15894,7 @@
       <c r="I110" t="s">
         <v>2202</v>
       </c>
-      <c r="J110" s="1">
+      <c r="J110" s="3">
         <v>4000</v>
       </c>
       <c r="K110" s="8"/>
@@ -15969,7 +15972,7 @@
       <c r="I111" t="s">
         <v>2202</v>
       </c>
-      <c r="J111" s="1">
+      <c r="J111" s="3">
         <v>3000</v>
       </c>
       <c r="K111" s="8"/>
@@ -16047,7 +16050,7 @@
       <c r="I112" t="s">
         <v>2202</v>
       </c>
-      <c r="J112" s="1">
+      <c r="J112" s="3">
         <v>2000</v>
       </c>
       <c r="K112" s="8"/>
@@ -16125,7 +16128,7 @@
       <c r="I113" t="s">
         <v>2202</v>
       </c>
-      <c r="J113" s="1">
+      <c r="J113" s="3">
         <v>3000</v>
       </c>
       <c r="K113" s="8"/>
@@ -16203,7 +16206,7 @@
       <c r="I114" t="s">
         <v>2202</v>
       </c>
-      <c r="J114" s="1">
+      <c r="J114" s="3">
         <v>3000</v>
       </c>
       <c r="K114" s="8"/>
@@ -16281,7 +16284,7 @@
       <c r="I115" t="s">
         <v>2202</v>
       </c>
-      <c r="J115" s="1">
+      <c r="J115" s="3">
         <v>2000</v>
       </c>
       <c r="K115" s="8"/>
@@ -16359,7 +16362,7 @@
       <c r="I116" t="s">
         <v>2199</v>
       </c>
-      <c r="J116" s="1">
+      <c r="J116" s="3">
         <v>100000</v>
       </c>
       <c r="K116" s="8"/>
@@ -16439,7 +16442,7 @@
       <c r="I117" t="s">
         <v>2199</v>
       </c>
-      <c r="J117" s="1">
+      <c r="J117" s="3">
         <v>700000</v>
       </c>
       <c r="K117" s="8"/>
@@ -16519,7 +16522,7 @@
       <c r="I118" t="s">
         <v>1200</v>
       </c>
-      <c r="J118" s="1">
+      <c r="J118" s="3">
         <v>1000</v>
       </c>
       <c r="K118" s="8"/>
@@ -16597,7 +16600,7 @@
       <c r="I119" t="s">
         <v>2199</v>
       </c>
-      <c r="J119" s="1">
+      <c r="J119" s="3">
         <v>200000</v>
       </c>
       <c r="K119" s="8"/>
@@ -16677,7 +16680,7 @@
       <c r="I120" t="s">
         <v>1200</v>
       </c>
-      <c r="J120" s="1">
+      <c r="J120" s="3">
         <v>20000</v>
       </c>
       <c r="K120" s="8"/>
@@ -16753,7 +16756,7 @@
       <c r="I121" t="s">
         <v>2199</v>
       </c>
-      <c r="J121" s="1">
+      <c r="J121" s="3">
         <v>1000000</v>
       </c>
       <c r="K121" s="8"/>
@@ -16833,7 +16836,7 @@
       <c r="I122" t="s">
         <v>2199</v>
       </c>
-      <c r="J122" s="1">
+      <c r="J122" s="3">
         <v>400000</v>
       </c>
       <c r="K122" s="8"/>
@@ -16913,7 +16916,7 @@
       <c r="I123" t="s">
         <v>2199</v>
       </c>
-      <c r="J123" s="1">
+      <c r="J123" s="3">
         <v>600000</v>
       </c>
       <c r="K123" s="8"/>
@@ -16993,7 +16996,7 @@
       <c r="I124" t="s">
         <v>2199</v>
       </c>
-      <c r="J124" s="1">
+      <c r="J124" s="3">
         <v>40000</v>
       </c>
       <c r="K124" s="8"/>
@@ -17073,7 +17076,7 @@
       <c r="I125" t="s">
         <v>2199</v>
       </c>
-      <c r="J125" s="1">
+      <c r="J125" s="3">
         <v>7000</v>
       </c>
       <c r="K125" s="8"/>
@@ -17153,7 +17156,7 @@
       <c r="I126" t="s">
         <v>2199</v>
       </c>
-      <c r="J126" s="1">
+      <c r="J126" s="3">
         <v>20000</v>
       </c>
       <c r="K126" s="8"/>
@@ -17233,8 +17236,8 @@
       <c r="I127" t="s">
         <v>1200</v>
       </c>
-      <c r="J127" s="1">
-        <v>40</v>
+      <c r="J127" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K127" s="8"/>
       <c r="L127" s="3"/>
@@ -17311,8 +17314,8 @@
       <c r="I128" t="s">
         <v>1200</v>
       </c>
-      <c r="J128" s="1">
-        <v>80</v>
+      <c r="J128" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K128" s="8"/>
       <c r="L128" s="3"/>
@@ -17389,8 +17392,8 @@
       <c r="I129" t="s">
         <v>1200</v>
       </c>
-      <c r="J129" s="1">
-        <v>10</v>
+      <c r="J129" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K129" s="8"/>
       <c r="L129" s="3"/>
@@ -17467,8 +17470,8 @@
       <c r="I130" t="s">
         <v>1200</v>
       </c>
-      <c r="J130" s="1">
-        <v>40</v>
+      <c r="J130" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K130" s="8"/>
       <c r="L130" s="3"/>
@@ -17545,7 +17548,7 @@
       <c r="I131" t="s">
         <v>1200</v>
       </c>
-      <c r="J131" s="1">
+      <c r="J131" s="3">
         <v>500</v>
       </c>
       <c r="K131" s="8"/>
@@ -17623,7 +17626,7 @@
       <c r="I132" t="s">
         <v>1200</v>
       </c>
-      <c r="J132" s="1">
+      <c r="J132" s="3">
         <v>1000</v>
       </c>
       <c r="K132" s="8"/>
@@ -17701,7 +17704,7 @@
       <c r="I133" t="s">
         <v>1200</v>
       </c>
-      <c r="J133" s="1">
+      <c r="J133" s="3">
         <v>400</v>
       </c>
       <c r="K133" s="8"/>
@@ -17779,7 +17782,7 @@
       <c r="I134" t="s">
         <v>1200</v>
       </c>
-      <c r="J134" s="1">
+      <c r="J134" s="3">
         <v>300</v>
       </c>
       <c r="K134" s="8"/>
@@ -17857,7 +17860,7 @@
       <c r="I135" t="s">
         <v>1200</v>
       </c>
-      <c r="J135" s="1">
+      <c r="J135" s="3">
         <v>2000</v>
       </c>
       <c r="K135" s="8"/>
@@ -17933,8 +17936,8 @@
       <c r="I136" s="14" t="s">
         <v>1200</v>
       </c>
-      <c r="J136" s="15">
-        <v>1</v>
+      <c r="J136" s="17" t="s">
+        <v>2238</v>
       </c>
       <c r="K136" s="16"/>
       <c r="L136" s="17"/>
@@ -18009,7 +18012,7 @@
       <c r="I137" t="s">
         <v>1200</v>
       </c>
-      <c r="J137" s="1">
+      <c r="J137" s="3">
         <v>1000</v>
       </c>
       <c r="K137" s="8"/>
@@ -18085,7 +18088,7 @@
       <c r="I138" t="s">
         <v>1200</v>
       </c>
-      <c r="J138" s="1">
+      <c r="J138" s="3">
         <v>600</v>
       </c>
       <c r="K138" s="8"/>
@@ -18161,7 +18164,7 @@
       <c r="I139" t="s">
         <v>1200</v>
       </c>
-      <c r="J139" s="1">
+      <c r="J139" s="3">
         <v>6000</v>
       </c>
       <c r="K139" s="8"/>
@@ -18237,7 +18240,7 @@
       <c r="I140" t="s">
         <v>1200</v>
       </c>
-      <c r="J140" s="1">
+      <c r="J140" s="3">
         <v>2000</v>
       </c>
       <c r="K140" s="8"/>
@@ -18313,8 +18316,8 @@
       <c r="I141" t="s">
         <v>2203</v>
       </c>
-      <c r="J141" s="1">
-        <v>90</v>
+      <c r="J141" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K141" s="8"/>
       <c r="L141" s="3"/>
@@ -18393,8 +18396,8 @@
       <c r="I142" s="14" t="s">
         <v>1200</v>
       </c>
-      <c r="J142" s="15">
-        <v>10</v>
+      <c r="J142" s="17" t="s">
+        <v>2238</v>
       </c>
       <c r="K142" s="16"/>
       <c r="L142" s="17"/>
@@ -18471,7 +18474,7 @@
       <c r="I143" t="s">
         <v>1200</v>
       </c>
-      <c r="J143" s="1">
+      <c r="J143" s="3">
         <v>400</v>
       </c>
       <c r="K143" s="8"/>
@@ -18549,7 +18552,7 @@
       <c r="I144" t="s">
         <v>1200</v>
       </c>
-      <c r="J144" s="1">
+      <c r="J144" s="3">
         <v>300</v>
       </c>
       <c r="K144" s="8"/>
@@ -18627,7 +18630,7 @@
       <c r="I145" t="s">
         <v>1200</v>
       </c>
-      <c r="J145" s="1">
+      <c r="J145" s="3">
         <v>500</v>
       </c>
       <c r="K145" s="8"/>
@@ -18705,7 +18708,7 @@
       <c r="I146" t="s">
         <v>1200</v>
       </c>
-      <c r="J146" s="1">
+      <c r="J146" s="3">
         <v>6000</v>
       </c>
       <c r="K146" s="8"/>
@@ -18783,7 +18786,7 @@
       <c r="I147" t="s">
         <v>1200</v>
       </c>
-      <c r="J147" s="1">
+      <c r="J147" s="3">
         <v>1000</v>
       </c>
       <c r="K147" s="8"/>
@@ -18859,8 +18862,8 @@
       <c r="I148" t="s">
         <v>1200</v>
       </c>
-      <c r="J148" s="1">
-        <v>1</v>
+      <c r="J148" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K148" s="8"/>
       <c r="L148" s="3"/>
@@ -18937,7 +18940,7 @@
       <c r="I149" t="s">
         <v>1200</v>
       </c>
-      <c r="J149" s="1">
+      <c r="J149" s="3">
         <v>200</v>
       </c>
       <c r="K149" s="8"/>
@@ -19015,7 +19018,7 @@
       <c r="I150" t="s">
         <v>2204</v>
       </c>
-      <c r="J150" s="1">
+      <c r="J150" s="3">
         <v>80000</v>
       </c>
       <c r="K150" s="8"/>
@@ -19093,7 +19096,7 @@
       <c r="I151" t="s">
         <v>2204</v>
       </c>
-      <c r="J151" s="1">
+      <c r="J151" s="3">
         <v>90000</v>
       </c>
       <c r="K151" s="8"/>
@@ -19171,7 +19174,7 @@
       <c r="I152" t="s">
         <v>1200</v>
       </c>
-      <c r="J152" s="1">
+      <c r="J152" s="3">
         <v>60000</v>
       </c>
       <c r="K152" s="8"/>
@@ -19247,7 +19250,7 @@
       <c r="I153" t="s">
         <v>2204</v>
       </c>
-      <c r="J153" s="1">
+      <c r="J153" s="3">
         <v>200000</v>
       </c>
       <c r="K153" s="8"/>
@@ -19325,7 +19328,7 @@
       <c r="I154" t="s">
         <v>2204</v>
       </c>
-      <c r="J154" s="1">
+      <c r="J154" s="3">
         <v>100000</v>
       </c>
       <c r="K154" s="8"/>
@@ -19403,7 +19406,7 @@
       <c r="I155" t="s">
         <v>1200</v>
       </c>
-      <c r="J155" s="1">
+      <c r="J155" s="3">
         <v>600</v>
       </c>
       <c r="K155" s="8"/>
@@ -19481,7 +19484,7 @@
       <c r="I156" t="s">
         <v>1200</v>
       </c>
-      <c r="J156" s="1">
+      <c r="J156" s="3">
         <v>1000</v>
       </c>
       <c r="K156" s="8"/>
@@ -19559,8 +19562,8 @@
       <c r="I157" t="s">
         <v>1200</v>
       </c>
-      <c r="J157" s="1">
-        <v>1</v>
+      <c r="J157" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K157" s="8"/>
       <c r="L157" s="3"/>
@@ -19637,7 +19640,7 @@
       <c r="I158" t="s">
         <v>1200</v>
       </c>
-      <c r="J158" s="1">
+      <c r="J158" s="3">
         <v>3000</v>
       </c>
       <c r="K158" s="8"/>
@@ -19715,7 +19718,7 @@
       <c r="I159" t="s">
         <v>2204</v>
       </c>
-      <c r="J159" s="1">
+      <c r="J159" s="3">
         <v>100000</v>
       </c>
       <c r="K159" s="8"/>
@@ -19793,7 +19796,7 @@
       <c r="I160" t="s">
         <v>2204</v>
       </c>
-      <c r="J160" s="1">
+      <c r="J160" s="3">
         <v>30000</v>
       </c>
       <c r="K160" s="8"/>
@@ -19871,7 +19874,7 @@
       <c r="I161" t="s">
         <v>2204</v>
       </c>
-      <c r="J161" s="1">
+      <c r="J161" s="3">
         <v>50000</v>
       </c>
       <c r="K161" s="8"/>
@@ -19949,7 +19952,7 @@
       <c r="I162" t="s">
         <v>2204</v>
       </c>
-      <c r="J162" s="1">
+      <c r="J162" s="3">
         <v>100000</v>
       </c>
       <c r="K162" s="8"/>
@@ -20027,7 +20030,7 @@
       <c r="I163" t="s">
         <v>1200</v>
       </c>
-      <c r="J163" s="1">
+      <c r="J163" s="3">
         <v>9000</v>
       </c>
       <c r="K163" s="8"/>
@@ -20105,7 +20108,7 @@
       <c r="I164" t="s">
         <v>2204</v>
       </c>
-      <c r="J164" s="1">
+      <c r="J164" s="3">
         <v>4000000</v>
       </c>
       <c r="K164" s="8"/>
@@ -20183,7 +20186,7 @@
       <c r="I165" t="s">
         <v>1200</v>
       </c>
-      <c r="J165" s="1">
+      <c r="J165" s="3">
         <v>300</v>
       </c>
       <c r="K165" s="8"/>
@@ -20261,7 +20264,7 @@
       <c r="I166" t="s">
         <v>1200</v>
       </c>
-      <c r="J166" s="1">
+      <c r="J166" s="3">
         <v>1000</v>
       </c>
       <c r="K166" s="8"/>
@@ -20339,7 +20342,7 @@
       <c r="I167" t="s">
         <v>2204</v>
       </c>
-      <c r="J167" s="1">
+      <c r="J167" s="3">
         <v>8000000</v>
       </c>
       <c r="K167" s="8"/>
@@ -20417,7 +20420,7 @@
       <c r="I168" t="s">
         <v>2204</v>
       </c>
-      <c r="J168" s="1">
+      <c r="J168" s="3">
         <v>3000000</v>
       </c>
       <c r="K168" s="8"/>
@@ -20495,7 +20498,7 @@
       <c r="I169" t="s">
         <v>2204</v>
       </c>
-      <c r="J169" s="1">
+      <c r="J169" s="3">
         <v>10000000</v>
       </c>
       <c r="K169" s="8"/>
@@ -20573,7 +20576,7 @@
       <c r="I170" t="s">
         <v>1200</v>
       </c>
-      <c r="J170" s="1">
+      <c r="J170" s="3">
         <v>600</v>
       </c>
       <c r="K170" s="8"/>
@@ -20651,7 +20654,7 @@
       <c r="I171" t="s">
         <v>1200</v>
       </c>
-      <c r="J171" s="1">
+      <c r="J171" s="3">
         <v>900</v>
       </c>
       <c r="K171" s="8"/>
@@ -20729,7 +20732,7 @@
       <c r="I172" t="s">
         <v>2204</v>
       </c>
-      <c r="J172" s="1">
+      <c r="J172" s="3">
         <v>3000000</v>
       </c>
       <c r="K172" s="8"/>
@@ -20807,7 +20810,7 @@
       <c r="I173" t="s">
         <v>1200</v>
       </c>
-      <c r="J173" s="1">
+      <c r="J173" s="3">
         <v>40000</v>
       </c>
       <c r="K173" s="8"/>
@@ -20885,8 +20888,8 @@
       <c r="I174" t="s">
         <v>1200</v>
       </c>
-      <c r="J174" s="1">
-        <v>2</v>
+      <c r="J174" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K174" s="8"/>
       <c r="L174" s="3"/>
@@ -20961,8 +20964,8 @@
       <c r="I175" t="s">
         <v>1200</v>
       </c>
-      <c r="J175" s="1">
-        <v>60</v>
+      <c r="J175" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K175" s="8"/>
       <c r="L175" s="3"/>
@@ -21039,7 +21042,7 @@
       <c r="I176" t="s">
         <v>2205</v>
       </c>
-      <c r="J176" s="1">
+      <c r="J176" s="3">
         <v>50000</v>
       </c>
       <c r="K176" s="8"/>
@@ -21117,7 +21120,7 @@
       <c r="I177" t="s">
         <v>2205</v>
       </c>
-      <c r="J177" s="1">
+      <c r="J177" s="3">
         <v>50000</v>
       </c>
       <c r="K177" s="8"/>
@@ -21195,7 +21198,7 @@
       <c r="I178" t="s">
         <v>2205</v>
       </c>
-      <c r="J178" s="1">
+      <c r="J178" s="3">
         <v>40000</v>
       </c>
       <c r="K178" s="8"/>
@@ -21273,7 +21276,7 @@
       <c r="I179" t="s">
         <v>1200</v>
       </c>
-      <c r="J179" s="1">
+      <c r="J179" s="3">
         <v>1000</v>
       </c>
       <c r="K179" s="8"/>
@@ -21349,7 +21352,7 @@
       <c r="I180" t="s">
         <v>1200</v>
       </c>
-      <c r="J180" s="1">
+      <c r="J180" s="3">
         <v>10000</v>
       </c>
       <c r="K180" s="8"/>
@@ -21425,7 +21428,7 @@
       <c r="I181" t="s">
         <v>2204</v>
       </c>
-      <c r="J181" s="1">
+      <c r="J181" s="3">
         <v>20000</v>
       </c>
       <c r="K181" s="8"/>
@@ -21503,7 +21506,7 @@
       <c r="I182" t="s">
         <v>2204</v>
       </c>
-      <c r="J182" s="1">
+      <c r="J182" s="3">
         <v>40000</v>
       </c>
       <c r="K182" s="8"/>
@@ -21581,7 +21584,7 @@
       <c r="I183" t="s">
         <v>2204</v>
       </c>
-      <c r="J183" s="1">
+      <c r="J183" s="3">
         <v>30000</v>
       </c>
       <c r="K183" s="8"/>
@@ -21659,7 +21662,7 @@
       <c r="I184" t="s">
         <v>2204</v>
       </c>
-      <c r="J184" s="1">
+      <c r="J184" s="3">
         <v>2000</v>
       </c>
       <c r="K184" s="8"/>
@@ -21735,7 +21738,7 @@
       <c r="I185" t="s">
         <v>1200</v>
       </c>
-      <c r="J185" s="1">
+      <c r="J185" s="3">
         <v>200</v>
       </c>
       <c r="K185" s="8"/>
@@ -21811,7 +21814,7 @@
       <c r="I186" t="s">
         <v>1200</v>
       </c>
-      <c r="J186" s="1">
+      <c r="J186" s="3">
         <v>1000</v>
       </c>
       <c r="K186" s="8"/>
@@ -21887,7 +21890,7 @@
       <c r="I187" t="s">
         <v>1200</v>
       </c>
-      <c r="J187" s="1">
+      <c r="J187" s="3">
         <v>5000</v>
       </c>
       <c r="K187" s="8"/>
@@ -21963,7 +21966,7 @@
       <c r="I188" t="s">
         <v>1200</v>
       </c>
-      <c r="J188" s="1">
+      <c r="J188" s="3">
         <v>7000</v>
       </c>
       <c r="K188" s="8"/>
@@ -22039,7 +22042,7 @@
       <c r="I189" t="s">
         <v>2206</v>
       </c>
-      <c r="J189" s="1">
+      <c r="J189" s="3">
         <v>3000</v>
       </c>
       <c r="K189" s="8"/>
@@ -22117,7 +22120,7 @@
       <c r="I190" t="s">
         <v>2204</v>
       </c>
-      <c r="J190" s="1">
+      <c r="J190" s="3">
         <v>900000</v>
       </c>
       <c r="K190" s="8"/>
@@ -22195,7 +22198,7 @@
       <c r="I191" t="s">
         <v>2206</v>
       </c>
-      <c r="J191" s="1">
+      <c r="J191" s="3">
         <v>30000</v>
       </c>
       <c r="K191" s="8"/>
@@ -22275,7 +22278,7 @@
       <c r="I192" t="s">
         <v>1200</v>
       </c>
-      <c r="J192" s="1">
+      <c r="J192" s="3">
         <v>3000</v>
       </c>
       <c r="K192" s="8"/>
@@ -22351,7 +22354,7 @@
       <c r="I193" t="s">
         <v>1200</v>
       </c>
-      <c r="J193" s="1">
+      <c r="J193" s="3">
         <v>10000</v>
       </c>
       <c r="K193" s="8"/>
@@ -22427,7 +22430,7 @@
       <c r="I194" t="s">
         <v>1200</v>
       </c>
-      <c r="J194" s="1">
+      <c r="J194" s="3">
         <v>1000</v>
       </c>
       <c r="K194" s="8"/>
@@ -22505,8 +22508,8 @@
       <c r="I195" t="s">
         <v>1200</v>
       </c>
-      <c r="J195" s="1">
-        <v>9</v>
+      <c r="J195" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K195" s="8"/>
       <c r="L195" s="3"/>
@@ -22583,7 +22586,7 @@
       <c r="I196" t="s">
         <v>2206</v>
       </c>
-      <c r="J196" s="1">
+      <c r="J196" s="3">
         <v>9000</v>
       </c>
       <c r="K196" s="8"/>
@@ -22663,8 +22666,8 @@
       <c r="I197" t="s">
         <v>1200</v>
       </c>
-      <c r="J197" s="1">
-        <v>4</v>
+      <c r="J197" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K197" s="8"/>
       <c r="L197" s="3"/>
@@ -22741,8 +22744,8 @@
       <c r="I198" t="s">
         <v>1200</v>
       </c>
-      <c r="J198" s="1">
-        <v>1</v>
+      <c r="J198" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K198" s="8"/>
       <c r="L198" s="3"/>
@@ -22817,7 +22820,7 @@
       <c r="I199" t="s">
         <v>2204</v>
       </c>
-      <c r="J199" s="1">
+      <c r="J199" s="3">
         <v>300000</v>
       </c>
       <c r="K199" s="8"/>
@@ -22895,7 +22898,7 @@
       <c r="I200" t="s">
         <v>2204</v>
       </c>
-      <c r="J200" s="1">
+      <c r="J200" s="3">
         <v>200000</v>
       </c>
       <c r="K200" s="8"/>
@@ -22973,7 +22976,7 @@
       <c r="I201" t="s">
         <v>2204</v>
       </c>
-      <c r="J201" s="1">
+      <c r="J201" s="3">
         <v>200000</v>
       </c>
       <c r="K201" s="8"/>
@@ -23051,8 +23054,8 @@
       <c r="I202" t="s">
         <v>1200</v>
       </c>
-      <c r="J202" s="1">
-        <v>3</v>
+      <c r="J202" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K202" s="8"/>
       <c r="L202" s="3"/>
@@ -23129,7 +23132,7 @@
       <c r="I203" t="s">
         <v>2206</v>
       </c>
-      <c r="J203" s="1">
+      <c r="J203" s="3">
         <v>50000</v>
       </c>
       <c r="K203" s="8"/>
@@ -23209,8 +23212,8 @@
       <c r="I204" t="s">
         <v>1200</v>
       </c>
-      <c r="J204" s="1">
-        <v>4</v>
+      <c r="J204" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K204" s="8"/>
       <c r="L204" s="3"/>
@@ -23285,7 +23288,7 @@
       <c r="I205" t="s">
         <v>1200</v>
       </c>
-      <c r="J205" s="1">
+      <c r="J205" s="3">
         <v>2000</v>
       </c>
       <c r="K205" s="8"/>
@@ -23361,7 +23364,7 @@
       <c r="I206" t="s">
         <v>1200</v>
       </c>
-      <c r="J206" s="1">
+      <c r="J206" s="3">
         <v>300</v>
       </c>
       <c r="K206" s="8"/>
@@ -23439,7 +23442,7 @@
       <c r="I207" t="s">
         <v>1200</v>
       </c>
-      <c r="J207" s="1">
+      <c r="J207" s="3">
         <v>500</v>
       </c>
       <c r="K207" s="8"/>
@@ -23517,7 +23520,7 @@
       <c r="I208" t="s">
         <v>2204</v>
       </c>
-      <c r="J208" s="1">
+      <c r="J208" s="3">
         <v>100000</v>
       </c>
       <c r="K208" s="8"/>
@@ -23595,7 +23598,7 @@
       <c r="I209" t="s">
         <v>2204</v>
       </c>
-      <c r="J209" s="1">
+      <c r="J209" s="3">
         <v>200000</v>
       </c>
       <c r="K209" s="8"/>
@@ -23673,7 +23676,7 @@
       <c r="I210" t="s">
         <v>2206</v>
       </c>
-      <c r="J210" s="1">
+      <c r="J210" s="3">
         <v>6000</v>
       </c>
       <c r="K210" s="8"/>
@@ -23751,7 +23754,7 @@
       <c r="I211" t="s">
         <v>2204</v>
       </c>
-      <c r="J211" s="1">
+      <c r="J211" s="3">
         <v>300000</v>
       </c>
       <c r="K211" s="8"/>
@@ -23829,7 +23832,7 @@
       <c r="I212" t="s">
         <v>1200</v>
       </c>
-      <c r="J212" s="1">
+      <c r="J212" s="3">
         <v>3000</v>
       </c>
       <c r="K212" s="8"/>
@@ -23905,7 +23908,7 @@
       <c r="I213" t="s">
         <v>1200</v>
       </c>
-      <c r="J213" s="1">
+      <c r="J213" s="3">
         <v>300</v>
       </c>
       <c r="K213" s="8"/>
@@ -23981,8 +23984,8 @@
       <c r="I214" t="s">
         <v>1200</v>
       </c>
-      <c r="J214" s="1">
-        <v>1</v>
+      <c r="J214" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K214" s="8"/>
       <c r="L214" s="3"/>
@@ -24057,7 +24060,7 @@
       <c r="I215" t="s">
         <v>2206</v>
       </c>
-      <c r="J215" s="1">
+      <c r="J215" s="3">
         <v>600</v>
       </c>
       <c r="K215" s="8"/>
@@ -24137,7 +24140,7 @@
       <c r="I216" s="14" t="s">
         <v>1200</v>
       </c>
-      <c r="J216" s="15">
+      <c r="J216" s="17">
         <v>600</v>
       </c>
       <c r="K216" s="16"/>
@@ -24215,7 +24218,7 @@
       <c r="I217" t="s">
         <v>2207</v>
       </c>
-      <c r="J217" s="1">
+      <c r="J217" s="3">
         <v>20000</v>
       </c>
       <c r="K217" s="8"/>
@@ -24295,7 +24298,7 @@
       <c r="I218" t="s">
         <v>2207</v>
       </c>
-      <c r="J218" s="1">
+      <c r="J218" s="3">
         <v>20000</v>
       </c>
       <c r="K218" s="8"/>
@@ -24375,7 +24378,7 @@
       <c r="I219" t="s">
         <v>2207</v>
       </c>
-      <c r="J219" s="1">
+      <c r="J219" s="3">
         <v>4000</v>
       </c>
       <c r="K219" s="8"/>
@@ -24455,7 +24458,7 @@
       <c r="I220" t="s">
         <v>2207</v>
       </c>
-      <c r="J220" s="1">
+      <c r="J220" s="3">
         <v>20000</v>
       </c>
       <c r="K220" s="8"/>
@@ -24535,7 +24538,7 @@
       <c r="I221" t="s">
         <v>2207</v>
       </c>
-      <c r="J221" s="1">
+      <c r="J221" s="3">
         <v>20000</v>
       </c>
       <c r="K221" s="8"/>
@@ -24617,7 +24620,7 @@
       <c r="I222" t="s">
         <v>2207</v>
       </c>
-      <c r="J222" s="1">
+      <c r="J222" s="3">
         <v>20000</v>
       </c>
       <c r="K222" s="8"/>
@@ -24697,7 +24700,7 @@
       <c r="I223" t="s">
         <v>2207</v>
       </c>
-      <c r="J223" s="1">
+      <c r="J223" s="3">
         <v>30000</v>
       </c>
       <c r="K223" s="8"/>
@@ -24777,7 +24780,7 @@
       <c r="I224" t="s">
         <v>2207</v>
       </c>
-      <c r="J224" s="1">
+      <c r="J224" s="3">
         <v>10000</v>
       </c>
       <c r="K224" s="8"/>
@@ -24857,7 +24860,7 @@
       <c r="I225" t="s">
         <v>2207</v>
       </c>
-      <c r="J225" s="1">
+      <c r="J225" s="3">
         <v>20000</v>
       </c>
       <c r="K225" s="8"/>
@@ -24939,8 +24942,8 @@
       <c r="I226" t="s">
         <v>1200</v>
       </c>
-      <c r="J226" s="1">
-        <v>9</v>
+      <c r="J226" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K226" s="8"/>
       <c r="L226" s="3"/>
@@ -25019,8 +25022,8 @@
       <c r="I227" t="s">
         <v>1200</v>
       </c>
-      <c r="J227" s="1">
-        <v>8</v>
+      <c r="J227" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K227" s="8"/>
       <c r="L227" s="3"/>
@@ -25099,8 +25102,8 @@
       <c r="I228" t="s">
         <v>1200</v>
       </c>
-      <c r="J228" s="1">
-        <v>20</v>
+      <c r="J228" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K228" s="8"/>
       <c r="L228" s="3"/>
@@ -25179,7 +25182,7 @@
       <c r="I229" t="s">
         <v>2208</v>
       </c>
-      <c r="J229" s="1">
+      <c r="J229" s="3">
         <v>80000</v>
       </c>
       <c r="K229" s="8"/>
@@ -25259,7 +25262,7 @@
       <c r="I230" t="s">
         <v>2208</v>
       </c>
-      <c r="J230" s="1">
+      <c r="J230" s="3">
         <v>60000</v>
       </c>
       <c r="K230" s="8"/>
@@ -25339,7 +25342,7 @@
       <c r="I231" t="s">
         <v>2209</v>
       </c>
-      <c r="J231" s="1">
+      <c r="J231" s="3">
         <v>50000</v>
       </c>
       <c r="K231" s="8"/>
@@ -25419,7 +25422,7 @@
       <c r="I232" t="s">
         <v>2209</v>
       </c>
-      <c r="J232" s="1">
+      <c r="J232" s="3">
         <v>20000</v>
       </c>
       <c r="K232" s="8"/>
@@ -25499,7 +25502,7 @@
       <c r="I233" t="s">
         <v>1200</v>
       </c>
-      <c r="J233" s="1">
+      <c r="J233" s="3">
         <v>20000</v>
       </c>
       <c r="K233" s="8"/>
@@ -25577,7 +25580,7 @@
       <c r="I234" t="s">
         <v>2209</v>
       </c>
-      <c r="J234" s="1">
+      <c r="J234" s="3">
         <v>60000</v>
       </c>
       <c r="K234" s="8"/>
@@ -25657,7 +25660,7 @@
       <c r="I235" t="s">
         <v>2209</v>
       </c>
-      <c r="J235" s="1">
+      <c r="J235" s="3">
         <v>80000</v>
       </c>
       <c r="K235" s="8"/>
@@ -25737,7 +25740,7 @@
       <c r="I236" t="s">
         <v>2210</v>
       </c>
-      <c r="J236" s="1">
+      <c r="J236" s="3">
         <v>40000</v>
       </c>
       <c r="K236" s="8"/>
@@ -25817,7 +25820,7 @@
       <c r="I237" t="s">
         <v>2210</v>
       </c>
-      <c r="J237" s="1">
+      <c r="J237" s="3">
         <v>30000</v>
       </c>
       <c r="K237" s="8"/>
@@ -25897,7 +25900,7 @@
       <c r="I238" t="s">
         <v>2210</v>
       </c>
-      <c r="J238" s="1">
+      <c r="J238" s="3">
         <v>40000</v>
       </c>
       <c r="K238" s="8"/>
@@ -25977,7 +25980,7 @@
       <c r="I239" t="s">
         <v>2209</v>
       </c>
-      <c r="J239" s="1">
+      <c r="J239" s="3">
         <v>60000</v>
       </c>
       <c r="K239" s="8"/>
@@ -26057,7 +26060,7 @@
       <c r="I240" t="s">
         <v>2209</v>
       </c>
-      <c r="J240" s="1">
+      <c r="J240" s="3">
         <v>40000</v>
       </c>
       <c r="K240" s="8"/>
@@ -26137,7 +26140,7 @@
       <c r="I241" t="s">
         <v>2209</v>
       </c>
-      <c r="J241" s="1">
+      <c r="J241" s="3">
         <v>30000</v>
       </c>
       <c r="K241" s="8"/>
@@ -26217,7 +26220,7 @@
       <c r="I242" t="s">
         <v>2209</v>
       </c>
-      <c r="J242" s="1">
+      <c r="J242" s="3">
         <v>200</v>
       </c>
       <c r="K242" s="8"/>
@@ -26297,7 +26300,7 @@
       <c r="I243" t="s">
         <v>2209</v>
       </c>
-      <c r="J243" s="1">
+      <c r="J243" s="3">
         <v>800</v>
       </c>
       <c r="K243" s="8"/>
@@ -26377,7 +26380,7 @@
       <c r="I244" t="s">
         <v>2209</v>
       </c>
-      <c r="J244" s="1">
+      <c r="J244" s="3">
         <v>600</v>
       </c>
       <c r="K244" s="8"/>
@@ -26457,7 +26460,7 @@
       <c r="I245" t="s">
         <v>2209</v>
       </c>
-      <c r="J245" s="1">
+      <c r="J245" s="3">
         <v>6000000</v>
       </c>
       <c r="K245" s="8"/>
@@ -26537,7 +26540,7 @@
       <c r="I246" t="s">
         <v>2209</v>
       </c>
-      <c r="J246" s="1">
+      <c r="J246" s="3">
         <v>2000000</v>
       </c>
       <c r="K246" s="8"/>
@@ -26617,7 +26620,7 @@
       <c r="I247" t="s">
         <v>1200</v>
       </c>
-      <c r="J247" s="1">
+      <c r="J247" s="3">
         <v>2000000</v>
       </c>
       <c r="K247" s="8"/>
@@ -26695,7 +26698,7 @@
       <c r="I248" t="s">
         <v>2209</v>
       </c>
-      <c r="J248" s="1">
+      <c r="J248" s="3">
         <v>6000000</v>
       </c>
       <c r="K248" s="8"/>
@@ -26775,7 +26778,7 @@
       <c r="I249" t="s">
         <v>2209</v>
       </c>
-      <c r="J249" s="1">
+      <c r="J249" s="3">
         <v>8000000</v>
       </c>
       <c r="K249" s="8"/>
@@ -26855,7 +26858,7 @@
       <c r="I250" t="s">
         <v>2207</v>
       </c>
-      <c r="J250" s="1">
+      <c r="J250" s="3">
         <v>100000</v>
       </c>
       <c r="K250" s="8"/>
@@ -26935,7 +26938,7 @@
       <c r="I251" t="s">
         <v>2207</v>
       </c>
-      <c r="J251" s="1">
+      <c r="J251" s="3">
         <v>200000</v>
       </c>
       <c r="K251" s="8"/>
@@ -27015,7 +27018,7 @@
       <c r="I252" t="s">
         <v>2207</v>
       </c>
-      <c r="J252" s="1">
+      <c r="J252" s="3">
         <v>80000</v>
       </c>
       <c r="K252" s="8"/>
@@ -27095,7 +27098,7 @@
       <c r="I253" t="s">
         <v>2207</v>
       </c>
-      <c r="J253" s="1">
+      <c r="J253" s="3">
         <v>200000</v>
       </c>
       <c r="K253" s="8"/>
@@ -27177,7 +27180,7 @@
       <c r="I254" t="s">
         <v>1200</v>
       </c>
-      <c r="J254" s="1">
+      <c r="J254" s="3">
         <v>9000</v>
       </c>
       <c r="K254" s="8"/>
@@ -27257,7 +27260,7 @@
       <c r="I255" t="s">
         <v>1200</v>
       </c>
-      <c r="J255" s="1">
+      <c r="J255" s="3">
         <v>300</v>
       </c>
       <c r="K255" s="8"/>
@@ -27335,7 +27338,7 @@
       <c r="I256" t="s">
         <v>2207</v>
       </c>
-      <c r="J256" s="1">
+      <c r="J256" s="3">
         <v>1000000</v>
       </c>
       <c r="K256" s="8"/>
@@ -27415,8 +27418,8 @@
       <c r="I257" t="s">
         <v>1200</v>
       </c>
-      <c r="J257" s="1">
-        <v>100</v>
+      <c r="J257" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K257" s="8"/>
       <c r="L257" s="3"/>
@@ -27493,8 +27496,8 @@
       <c r="I258" t="s">
         <v>1200</v>
       </c>
-      <c r="J258" s="1">
-        <v>30</v>
+      <c r="J258" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K258" s="8"/>
       <c r="L258" s="3"/>
@@ -27571,8 +27574,8 @@
       <c r="I259" t="s">
         <v>1200</v>
       </c>
-      <c r="J259" s="1">
-        <v>40</v>
+      <c r="J259" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K259" s="8"/>
       <c r="L259" s="3"/>
@@ -27649,7 +27652,7 @@
       <c r="I260" t="s">
         <v>1200</v>
       </c>
-      <c r="J260" s="1">
+      <c r="J260" s="3">
         <v>800</v>
       </c>
       <c r="K260" s="8"/>
@@ -27727,7 +27730,7 @@
       <c r="I261" t="s">
         <v>2207</v>
       </c>
-      <c r="J261" s="1">
+      <c r="J261" s="3">
         <v>2000000</v>
       </c>
       <c r="K261" s="8"/>
@@ -27807,7 +27810,7 @@
       <c r="I262" t="s">
         <v>1200</v>
       </c>
-      <c r="J262" s="1">
+      <c r="J262" s="3">
         <v>8000</v>
       </c>
       <c r="K262" s="8"/>
@@ -27885,7 +27888,7 @@
       <c r="I263" t="s">
         <v>2207</v>
       </c>
-      <c r="J263" s="1">
+      <c r="J263" s="3">
         <v>7000</v>
       </c>
       <c r="K263" s="8"/>
@@ -27965,7 +27968,7 @@
       <c r="I264" t="s">
         <v>1200</v>
       </c>
-      <c r="J264" s="1">
+      <c r="J264" s="3">
         <v>2000</v>
       </c>
       <c r="K264" s="8"/>
@@ -28043,7 +28046,7 @@
       <c r="I265" t="s">
         <v>1200</v>
       </c>
-      <c r="J265" s="1">
+      <c r="J265" s="3">
         <v>200</v>
       </c>
       <c r="K265" s="8"/>
@@ -28121,7 +28124,7 @@
       <c r="I266" t="s">
         <v>1200</v>
       </c>
-      <c r="J266" s="1">
+      <c r="J266" s="3">
         <v>800</v>
       </c>
       <c r="K266" s="8"/>
@@ -28199,8 +28202,8 @@
       <c r="I267" t="s">
         <v>1200</v>
       </c>
-      <c r="J267" s="1">
-        <v>20</v>
+      <c r="J267" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K267" s="8"/>
       <c r="L267" s="3"/>
@@ -28277,7 +28280,7 @@
       <c r="I268" t="s">
         <v>2207</v>
       </c>
-      <c r="J268" s="1">
+      <c r="J268" s="3">
         <v>900000</v>
       </c>
       <c r="K268" s="8"/>
@@ -28357,7 +28360,7 @@
       <c r="I269" t="s">
         <v>1200</v>
       </c>
-      <c r="J269" s="1">
+      <c r="J269" s="3">
         <v>2000</v>
       </c>
       <c r="K269" s="8"/>
@@ -28435,7 +28438,7 @@
       <c r="I270" t="s">
         <v>2207</v>
       </c>
-      <c r="J270" s="1">
+      <c r="J270" s="3">
         <v>7000</v>
       </c>
       <c r="K270" s="8"/>
@@ -28515,7 +28518,7 @@
       <c r="I271" t="s">
         <v>1200</v>
       </c>
-      <c r="J271" s="1">
+      <c r="J271" s="3">
         <v>6000</v>
       </c>
       <c r="K271" s="8"/>
@@ -28593,8 +28596,8 @@
       <c r="I272" t="s">
         <v>1200</v>
       </c>
-      <c r="J272" s="1">
-        <v>60</v>
+      <c r="J272" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K272" s="8"/>
       <c r="L272" s="3"/>
@@ -28671,8 +28674,8 @@
       <c r="I273" t="s">
         <v>1200</v>
       </c>
-      <c r="J273" s="1">
-        <v>50</v>
+      <c r="J273" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K273" s="8"/>
       <c r="L273" s="3"/>
@@ -28749,8 +28752,8 @@
       <c r="I274" t="s">
         <v>1200</v>
       </c>
-      <c r="J274" s="1">
-        <v>80</v>
+      <c r="J274" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K274" s="8"/>
       <c r="L274" s="3"/>
@@ -28827,8 +28830,8 @@
       <c r="I275" t="s">
         <v>1200</v>
       </c>
-      <c r="J275" s="1">
-        <v>20</v>
+      <c r="J275" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K275" s="8"/>
       <c r="L275" s="3"/>
@@ -28903,7 +28906,7 @@
       <c r="I276" t="s">
         <v>1200</v>
       </c>
-      <c r="J276" s="1">
+      <c r="J276" s="3">
         <v>200</v>
       </c>
       <c r="K276" s="8"/>
@@ -28979,7 +28982,7 @@
       <c r="I277" t="s">
         <v>1200</v>
       </c>
-      <c r="J277" s="1">
+      <c r="J277" s="3">
         <v>4000</v>
       </c>
       <c r="K277" s="8"/>
@@ -29055,7 +29058,7 @@
       <c r="I278" t="s">
         <v>2207</v>
       </c>
-      <c r="J278" s="1">
+      <c r="J278" s="3">
         <v>10000</v>
       </c>
       <c r="K278" s="8"/>
@@ -29137,7 +29140,7 @@
       <c r="I279" t="s">
         <v>1200</v>
       </c>
-      <c r="J279" s="1">
+      <c r="J279" s="3">
         <v>30000</v>
       </c>
       <c r="K279" s="8"/>
@@ -29215,7 +29218,7 @@
       <c r="I280" t="s">
         <v>1200</v>
       </c>
-      <c r="J280" s="1">
+      <c r="J280" s="3">
         <v>20000</v>
       </c>
       <c r="K280" s="8"/>
@@ -29293,7 +29296,7 @@
       <c r="I281" t="s">
         <v>2207</v>
       </c>
-      <c r="J281" s="1">
+      <c r="J281" s="3">
         <v>30000</v>
       </c>
       <c r="K281" s="8"/>
@@ -29375,7 +29378,7 @@
       <c r="I282" t="s">
         <v>1200</v>
       </c>
-      <c r="J282" s="1">
+      <c r="J282" s="3">
         <v>30000</v>
       </c>
       <c r="K282" s="8"/>
@@ -29453,7 +29456,7 @@
       <c r="I283" t="s">
         <v>1200</v>
       </c>
-      <c r="J283" s="1">
+      <c r="J283" s="3">
         <v>30000</v>
       </c>
       <c r="K283" s="8"/>
@@ -29531,8 +29534,8 @@
       <c r="I284" t="s">
         <v>1200</v>
       </c>
-      <c r="J284" s="1">
-        <v>6</v>
+      <c r="J284" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K284" s="8"/>
       <c r="L284" s="3"/>
@@ -29611,8 +29614,8 @@
       <c r="I285" t="s">
         <v>1200</v>
       </c>
-      <c r="J285" s="1">
-        <v>8</v>
+      <c r="J285" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K285" s="8"/>
       <c r="L285" s="3"/>
@@ -29691,7 +29694,7 @@
       <c r="I286" t="s">
         <v>1200</v>
       </c>
-      <c r="J286" s="1">
+      <c r="J286" s="3">
         <v>20000</v>
       </c>
       <c r="K286" s="8"/>
@@ -29769,7 +29772,7 @@
       <c r="I287" t="s">
         <v>1200</v>
       </c>
-      <c r="J287" s="1">
+      <c r="J287" s="3">
         <v>30000</v>
       </c>
       <c r="K287" s="8"/>
@@ -29847,7 +29850,7 @@
       <c r="I288" t="s">
         <v>1200</v>
       </c>
-      <c r="J288" s="1">
+      <c r="J288" s="3">
         <v>10000</v>
       </c>
       <c r="K288" s="8"/>
@@ -29925,7 +29928,7 @@
       <c r="I289" t="s">
         <v>1200</v>
       </c>
-      <c r="J289" s="1">
+      <c r="J289" s="3">
         <v>40000</v>
       </c>
       <c r="K289" s="8"/>
@@ -30003,7 +30006,7 @@
       <c r="I290" t="s">
         <v>1200</v>
       </c>
-      <c r="J290" s="1">
+      <c r="J290" s="3">
         <v>2000</v>
       </c>
       <c r="K290" s="8"/>
@@ -30079,7 +30082,7 @@
       <c r="I291" t="s">
         <v>2209</v>
       </c>
-      <c r="J291" s="1">
+      <c r="J291" s="3">
         <v>10000</v>
       </c>
       <c r="K291" s="8"/>
@@ -30161,7 +30164,7 @@
       <c r="I292" t="s">
         <v>2209</v>
       </c>
-      <c r="J292" s="1">
+      <c r="J292" s="3">
         <v>7000</v>
       </c>
       <c r="K292" s="8"/>
@@ -30243,7 +30246,7 @@
       <c r="I293" t="s">
         <v>2209</v>
       </c>
-      <c r="J293" s="1">
+      <c r="J293" s="3">
         <v>10000</v>
       </c>
       <c r="K293" s="8"/>
@@ -30325,7 +30328,7 @@
       <c r="I294" t="s">
         <v>2207</v>
       </c>
-      <c r="J294" s="1">
+      <c r="J294" s="3">
         <v>3000</v>
       </c>
       <c r="K294" s="8"/>
@@ -30407,7 +30410,7 @@
       <c r="I295" t="s">
         <v>2207</v>
       </c>
-      <c r="J295" s="1">
+      <c r="J295" s="3">
         <v>30000</v>
       </c>
       <c r="K295" s="8"/>
@@ -30489,7 +30492,7 @@
       <c r="I296" t="s">
         <v>2209</v>
       </c>
-      <c r="J296" s="1">
+      <c r="J296" s="3">
         <v>60000</v>
       </c>
       <c r="K296" s="8"/>
@@ -30571,7 +30574,7 @@
       <c r="I297" t="s">
         <v>2209</v>
       </c>
-      <c r="J297" s="1">
+      <c r="J297" s="3">
         <v>80000</v>
       </c>
       <c r="K297" s="8"/>
@@ -30653,7 +30656,7 @@
       <c r="I298" t="s">
         <v>1200</v>
       </c>
-      <c r="J298" s="1">
+      <c r="J298" s="3">
         <v>6000</v>
       </c>
       <c r="K298" s="8"/>
@@ -30733,7 +30736,7 @@
       <c r="I299" t="s">
         <v>2207</v>
       </c>
-      <c r="J299" s="1">
+      <c r="J299" s="3">
         <v>60000</v>
       </c>
       <c r="K299" s="8"/>
@@ -30813,7 +30816,7 @@
       <c r="I300" t="s">
         <v>2207</v>
       </c>
-      <c r="J300" s="1">
+      <c r="J300" s="3">
         <v>70000</v>
       </c>
       <c r="K300" s="8"/>
@@ -30893,7 +30896,7 @@
       <c r="I301" t="s">
         <v>2207</v>
       </c>
-      <c r="J301" s="1">
+      <c r="J301" s="3">
         <v>7000</v>
       </c>
       <c r="K301" s="8"/>
@@ -30973,7 +30976,7 @@
       <c r="I302" t="s">
         <v>2207</v>
       </c>
-      <c r="J302" s="1">
+      <c r="J302" s="3">
         <v>10000</v>
       </c>
       <c r="K302" s="8"/>
@@ -31053,7 +31056,7 @@
       <c r="I303" t="s">
         <v>2207</v>
       </c>
-      <c r="J303" s="1">
+      <c r="J303" s="3">
         <v>30000</v>
       </c>
       <c r="K303" s="8"/>
@@ -31133,7 +31136,7 @@
       <c r="I304" t="s">
         <v>2207</v>
       </c>
-      <c r="J304" s="1">
+      <c r="J304" s="3">
         <v>40000</v>
       </c>
       <c r="K304" s="8"/>
@@ -31213,7 +31216,7 @@
       <c r="I305" t="s">
         <v>2207</v>
       </c>
-      <c r="J305" s="1">
+      <c r="J305" s="3">
         <v>70000</v>
       </c>
       <c r="K305" s="8"/>
@@ -31295,7 +31298,7 @@
       <c r="I306" t="s">
         <v>2207</v>
       </c>
-      <c r="J306" s="1">
+      <c r="J306" s="3">
         <v>50000</v>
       </c>
       <c r="K306" s="8"/>
@@ -31377,7 +31380,7 @@
       <c r="I307" t="s">
         <v>2209</v>
       </c>
-      <c r="J307" s="1">
+      <c r="J307" s="3">
         <v>50000</v>
       </c>
       <c r="K307" s="8"/>
@@ -31455,7 +31458,7 @@
       <c r="I308" t="s">
         <v>1200</v>
       </c>
-      <c r="J308" s="1">
+      <c r="J308" s="3">
         <v>10000</v>
       </c>
       <c r="K308" s="8"/>
@@ -31531,7 +31534,7 @@
       <c r="I309" t="s">
         <v>2209</v>
       </c>
-      <c r="J309" s="1">
+      <c r="J309" s="3">
         <v>200</v>
       </c>
       <c r="K309" s="8"/>
@@ -31609,7 +31612,7 @@
       <c r="I310" t="s">
         <v>2209</v>
       </c>
-      <c r="J310" s="1">
+      <c r="J310" s="3">
         <v>40000</v>
       </c>
       <c r="K310" s="8"/>
@@ -31687,7 +31690,7 @@
       <c r="I311" t="s">
         <v>2209</v>
       </c>
-      <c r="J311" s="1">
+      <c r="J311" s="3">
         <v>200000</v>
       </c>
       <c r="K311" s="8"/>
@@ -31765,7 +31768,7 @@
       <c r="I312" t="s">
         <v>1200</v>
       </c>
-      <c r="J312" s="1">
+      <c r="J312" s="3">
         <v>5000</v>
       </c>
       <c r="K312" s="8"/>
@@ -31843,7 +31846,7 @@
       <c r="I313" t="s">
         <v>1200</v>
       </c>
-      <c r="J313" s="1">
+      <c r="J313" s="3">
         <v>20000</v>
       </c>
       <c r="K313" s="8"/>
@@ -31921,7 +31924,7 @@
       <c r="I314" t="s">
         <v>2209</v>
       </c>
-      <c r="J314" s="1">
+      <c r="J314" s="3">
         <v>200000</v>
       </c>
       <c r="K314" s="8"/>
@@ -32001,7 +32004,7 @@
       <c r="I315" t="s">
         <v>2209</v>
       </c>
-      <c r="J315" s="1">
+      <c r="J315" s="3">
         <v>30000</v>
       </c>
       <c r="K315" s="8"/>
@@ -32081,7 +32084,7 @@
       <c r="I316" t="s">
         <v>1200</v>
       </c>
-      <c r="J316" s="1">
+      <c r="J316" s="3">
         <v>400</v>
       </c>
       <c r="K316" s="8"/>
@@ -32159,8 +32162,8 @@
       <c r="I317" t="s">
         <v>1200</v>
       </c>
-      <c r="J317" s="1">
-        <v>2</v>
+      <c r="J317" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K317" s="8"/>
       <c r="L317" s="3"/>
@@ -32237,7 +32240,7 @@
       <c r="I318" t="s">
         <v>2209</v>
       </c>
-      <c r="J318" s="1">
+      <c r="J318" s="3">
         <v>20000</v>
       </c>
       <c r="K318" s="8"/>
@@ -32317,7 +32320,7 @@
       <c r="I319" t="s">
         <v>2209</v>
       </c>
-      <c r="J319" s="1">
+      <c r="J319" s="3">
         <v>700</v>
       </c>
       <c r="K319" s="8"/>
@@ -32397,7 +32400,7 @@
       <c r="I320" t="s">
         <v>2209</v>
       </c>
-      <c r="J320" s="1">
+      <c r="J320" s="3">
         <v>50000</v>
       </c>
       <c r="K320" s="8"/>
@@ -32477,8 +32480,8 @@
       <c r="I321" t="s">
         <v>2207</v>
       </c>
-      <c r="J321" s="1">
-        <v>5</v>
+      <c r="J321" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K321" s="8"/>
       <c r="L321" s="3"/>
@@ -32557,8 +32560,8 @@
       <c r="I322" t="s">
         <v>2207</v>
       </c>
-      <c r="J322" s="1">
-        <v>8</v>
+      <c r="J322" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K322" s="8"/>
       <c r="L322" s="3"/>
@@ -32637,8 +32640,8 @@
       <c r="I323" t="s">
         <v>2207</v>
       </c>
-      <c r="J323" s="1">
-        <v>1</v>
+      <c r="J323" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K323" s="8"/>
       <c r="L323" s="3"/>
@@ -32717,8 +32720,8 @@
       <c r="I324" t="s">
         <v>2209</v>
       </c>
-      <c r="J324" s="1">
-        <v>20</v>
+      <c r="J324" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K324" s="8"/>
       <c r="L324" s="3"/>
@@ -32797,8 +32800,8 @@
       <c r="I325" t="s">
         <v>2209</v>
       </c>
-      <c r="J325" s="1">
-        <v>50</v>
+      <c r="J325" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K325" s="8"/>
       <c r="L325" s="3"/>
@@ -32877,8 +32880,8 @@
       <c r="I326" t="s">
         <v>2209</v>
       </c>
-      <c r="J326" s="1">
-        <v>90</v>
+      <c r="J326" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K326" s="8"/>
       <c r="L326" s="3"/>
@@ -32957,7 +32960,7 @@
       <c r="I327" t="s">
         <v>1200</v>
       </c>
-      <c r="J327" s="1">
+      <c r="J327" s="3">
         <v>300</v>
       </c>
       <c r="K327" s="8"/>
@@ -33035,8 +33038,8 @@
       <c r="I328" t="s">
         <v>1200</v>
       </c>
-      <c r="J328" s="1">
-        <v>70</v>
+      <c r="J328" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K328" s="8"/>
       <c r="L328" s="3"/>
@@ -33113,7 +33116,7 @@
       <c r="I329" t="s">
         <v>2207</v>
       </c>
-      <c r="J329" s="1">
+      <c r="J329" s="3">
         <v>5000000</v>
       </c>
       <c r="K329" s="8"/>
@@ -33193,8 +33196,8 @@
       <c r="I330" t="s">
         <v>1200</v>
       </c>
-      <c r="J330" s="1">
-        <v>100</v>
+      <c r="J330" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K330" s="8"/>
       <c r="L330" s="3"/>
@@ -33271,7 +33274,7 @@
       <c r="I331" t="s">
         <v>1200</v>
       </c>
-      <c r="J331" s="1">
+      <c r="J331" s="3">
         <v>200</v>
       </c>
       <c r="K331" s="8"/>
@@ -33349,7 +33352,7 @@
       <c r="I332" t="s">
         <v>2207</v>
       </c>
-      <c r="J332" s="1">
+      <c r="J332" s="3">
         <v>2000000</v>
       </c>
       <c r="K332" s="8"/>
@@ -33429,7 +33432,7 @@
       <c r="I333" t="s">
         <v>2207</v>
       </c>
-      <c r="J333" s="1">
+      <c r="J333" s="3">
         <v>80000</v>
       </c>
       <c r="K333" s="8"/>
@@ -33511,7 +33514,7 @@
       <c r="I334" t="s">
         <v>2207</v>
       </c>
-      <c r="J334" s="1">
+      <c r="J334" s="3">
         <v>6000000</v>
       </c>
       <c r="K334" s="8"/>
@@ -33591,8 +33594,8 @@
       <c r="I335" t="s">
         <v>1200</v>
       </c>
-      <c r="J335" s="1">
-        <v>1</v>
+      <c r="J335" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K335" s="8"/>
       <c r="L335" s="3"/>
@@ -33669,7 +33672,7 @@
       <c r="I336" t="s">
         <v>2207</v>
       </c>
-      <c r="J336" s="1">
+      <c r="J336" s="3">
         <v>4000000</v>
       </c>
       <c r="K336" s="8"/>
@@ -33749,7 +33752,7 @@
       <c r="I337" t="s">
         <v>1200</v>
       </c>
-      <c r="J337" s="1">
+      <c r="J337" s="3">
         <v>2000</v>
       </c>
       <c r="K337" s="8"/>
@@ -33827,7 +33830,7 @@
       <c r="I338" t="s">
         <v>1200</v>
       </c>
-      <c r="J338" s="1">
+      <c r="J338" s="3">
         <v>900</v>
       </c>
       <c r="K338" s="8"/>
@@ -33905,7 +33908,7 @@
       <c r="I339" t="s">
         <v>1200</v>
       </c>
-      <c r="J339" s="1">
+      <c r="J339" s="3">
         <v>2000</v>
       </c>
       <c r="K339" s="8"/>
@@ -33983,7 +33986,7 @@
       <c r="I340" t="s">
         <v>1200</v>
       </c>
-      <c r="J340" s="1">
+      <c r="J340" s="3">
         <v>600</v>
       </c>
       <c r="K340" s="8"/>
@@ -34059,7 +34062,7 @@
       <c r="I341" t="s">
         <v>1200</v>
       </c>
-      <c r="J341" s="1">
+      <c r="J341" s="3">
         <v>200</v>
       </c>
       <c r="K341" s="8"/>
@@ -34135,7 +34138,7 @@
       <c r="I342" t="s">
         <v>1200</v>
       </c>
-      <c r="J342" s="1">
+      <c r="J342" s="3">
         <v>200</v>
       </c>
       <c r="K342" s="8"/>
@@ -34211,8 +34214,8 @@
       <c r="I343" t="s">
         <v>1200</v>
       </c>
-      <c r="J343" s="1">
-        <v>100</v>
+      <c r="J343" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K343" s="8"/>
       <c r="L343" s="3"/>
@@ -34287,8 +34290,8 @@
       <c r="I344" t="s">
         <v>1200</v>
       </c>
-      <c r="J344" s="1">
-        <v>10</v>
+      <c r="J344" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K344" s="8"/>
       <c r="L344" s="3"/>
@@ -34363,8 +34366,8 @@
       <c r="I345" t="s">
         <v>1200</v>
       </c>
-      <c r="J345" s="1">
-        <v>30</v>
+      <c r="J345" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K345" s="8"/>
       <c r="L345" s="3"/>
@@ -34439,7 +34442,7 @@
       <c r="I346" t="s">
         <v>1200</v>
       </c>
-      <c r="J346" s="1">
+      <c r="J346" s="3">
         <v>300</v>
       </c>
       <c r="K346" s="8"/>
@@ -34515,8 +34518,8 @@
       <c r="I347" t="s">
         <v>1200</v>
       </c>
-      <c r="J347" s="1">
-        <v>70</v>
+      <c r="J347" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K347" s="8"/>
       <c r="L347" s="3"/>
@@ -34591,7 +34594,7 @@
       <c r="I348" t="s">
         <v>1200</v>
       </c>
-      <c r="J348" s="1">
+      <c r="J348" s="3">
         <v>200</v>
       </c>
       <c r="K348" s="8"/>
@@ -34667,7 +34670,7 @@
       <c r="I349" t="s">
         <v>2209</v>
       </c>
-      <c r="J349" s="1">
+      <c r="J349" s="3">
         <v>20000</v>
       </c>
       <c r="K349" s="8"/>
@@ -34747,7 +34750,7 @@
       <c r="I350" t="s">
         <v>2209</v>
       </c>
-      <c r="J350" s="1">
+      <c r="J350" s="3">
         <v>20000</v>
       </c>
       <c r="K350" s="8"/>
@@ -34827,7 +34830,7 @@
       <c r="I351" t="s">
         <v>2209</v>
       </c>
-      <c r="J351" s="1">
+      <c r="J351" s="3">
         <v>30000</v>
       </c>
       <c r="K351" s="8"/>
@@ -34907,7 +34910,7 @@
       <c r="I352" t="s">
         <v>2209</v>
       </c>
-      <c r="J352" s="1">
+      <c r="J352" s="3">
         <v>200000</v>
       </c>
       <c r="K352" s="8"/>
@@ -34987,7 +34990,7 @@
       <c r="I353" t="s">
         <v>2209</v>
       </c>
-      <c r="J353" s="1">
+      <c r="J353" s="3">
         <v>200000</v>
       </c>
       <c r="K353" s="8"/>
@@ -35067,7 +35070,7 @@
       <c r="I354" t="s">
         <v>2209</v>
       </c>
-      <c r="J354" s="1">
+      <c r="J354" s="3">
         <v>500000</v>
       </c>
       <c r="K354" s="8"/>
@@ -35147,7 +35150,7 @@
       <c r="I355" t="s">
         <v>2210</v>
       </c>
-      <c r="J355" s="1">
+      <c r="J355" s="3">
         <v>4000</v>
       </c>
       <c r="K355" s="8"/>
@@ -35227,7 +35230,7 @@
       <c r="I356" t="s">
         <v>2210</v>
       </c>
-      <c r="J356" s="1">
+      <c r="J356" s="3">
         <v>4000</v>
       </c>
       <c r="K356" s="8"/>
@@ -35307,7 +35310,7 @@
       <c r="I357" t="s">
         <v>2210</v>
       </c>
-      <c r="J357" s="1">
+      <c r="J357" s="3">
         <v>4000</v>
       </c>
       <c r="K357" s="8"/>
@@ -35387,7 +35390,7 @@
       <c r="I358" t="s">
         <v>2207</v>
       </c>
-      <c r="J358" s="1">
+      <c r="J358" s="3">
         <v>8000</v>
       </c>
       <c r="K358" s="8"/>
@@ -35469,7 +35472,7 @@
       <c r="I359" t="s">
         <v>2207</v>
       </c>
-      <c r="J359" s="1">
+      <c r="J359" s="3">
         <v>50000</v>
       </c>
       <c r="K359" s="8"/>
@@ -35551,7 +35554,7 @@
       <c r="I360" t="s">
         <v>2207</v>
       </c>
-      <c r="J360" s="1">
+      <c r="J360" s="3">
         <v>400000</v>
       </c>
       <c r="K360" s="8"/>
@@ -35631,7 +35634,7 @@
       <c r="I361" t="s">
         <v>2207</v>
       </c>
-      <c r="J361" s="1">
+      <c r="J361" s="3">
         <v>400000</v>
       </c>
       <c r="K361" s="8"/>
@@ -35711,7 +35714,7 @@
       <c r="I362" t="s">
         <v>1200</v>
       </c>
-      <c r="J362" s="1">
+      <c r="J362" s="3">
         <v>20000</v>
       </c>
       <c r="K362" s="8"/>
@@ -35789,7 +35792,7 @@
       <c r="I363" t="s">
         <v>1200</v>
       </c>
-      <c r="J363" s="1">
+      <c r="J363" s="3">
         <v>30000</v>
       </c>
       <c r="K363" s="8"/>
@@ -35867,7 +35870,7 @@
       <c r="I364" t="s">
         <v>1200</v>
       </c>
-      <c r="J364" s="1">
+      <c r="J364" s="3">
         <v>3000</v>
       </c>
       <c r="K364" s="8"/>
@@ -35945,7 +35948,7 @@
       <c r="I365" t="s">
         <v>1200</v>
       </c>
-      <c r="J365" s="1">
+      <c r="J365" s="3">
         <v>6000</v>
       </c>
       <c r="K365" s="8"/>
@@ -36023,8 +36026,8 @@
       <c r="I366" t="s">
         <v>1200</v>
       </c>
-      <c r="J366" s="1">
-        <v>7</v>
+      <c r="J366" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K366" s="8"/>
       <c r="L366" s="3"/>
@@ -36101,8 +36104,8 @@
       <c r="I367" t="s">
         <v>1200</v>
       </c>
-      <c r="J367" s="1">
-        <v>10</v>
+      <c r="J367" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K367" s="8"/>
       <c r="L367" s="3"/>
@@ -36179,8 +36182,8 @@
       <c r="I368" t="s">
         <v>1200</v>
       </c>
-      <c r="J368" s="1">
-        <v>20</v>
+      <c r="J368" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K368" s="8"/>
       <c r="L368" s="3"/>
@@ -36257,7 +36260,7 @@
       <c r="I369" t="s">
         <v>2207</v>
       </c>
-      <c r="J369" s="1">
+      <c r="J369" s="3">
         <v>60000</v>
       </c>
       <c r="K369" s="8"/>
@@ -36337,7 +36340,7 @@
       <c r="I370" t="s">
         <v>2207</v>
       </c>
-      <c r="J370" s="1">
+      <c r="J370" s="3">
         <v>30000</v>
       </c>
       <c r="K370" s="8"/>
@@ -36417,7 +36420,7 @@
       <c r="I371" t="s">
         <v>2207</v>
       </c>
-      <c r="J371" s="1">
+      <c r="J371" s="3">
         <v>30000</v>
       </c>
       <c r="K371" s="8"/>
@@ -36497,7 +36500,7 @@
       <c r="I372" t="s">
         <v>2207</v>
       </c>
-      <c r="J372" s="1">
+      <c r="J372" s="3">
         <v>200000</v>
       </c>
       <c r="K372" s="8"/>
@@ -36577,7 +36580,7 @@
       <c r="I373" t="s">
         <v>2207</v>
       </c>
-      <c r="J373" s="1">
+      <c r="J373" s="3">
         <v>60000</v>
       </c>
       <c r="K373" s="8"/>
@@ -36657,7 +36660,7 @@
       <c r="I374" t="s">
         <v>2207</v>
       </c>
-      <c r="J374" s="1">
+      <c r="J374" s="3">
         <v>200000</v>
       </c>
       <c r="K374" s="8"/>
@@ -36737,7 +36740,7 @@
       <c r="I375" t="s">
         <v>2207</v>
       </c>
-      <c r="J375" s="1">
+      <c r="J375" s="3">
         <v>200000</v>
       </c>
       <c r="K375" s="8"/>
@@ -36817,8 +36820,8 @@
       <c r="I376" t="s">
         <v>1200</v>
       </c>
-      <c r="J376" s="1">
-        <v>5</v>
+      <c r="J376" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K376" s="8"/>
       <c r="L376" s="3"/>
@@ -36893,8 +36896,8 @@
       <c r="I377" t="s">
         <v>1200</v>
       </c>
-      <c r="J377" s="1">
-        <v>100</v>
+      <c r="J377" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K377" s="8"/>
       <c r="L377" s="3"/>
@@ -36969,8 +36972,8 @@
       <c r="I378" t="s">
         <v>1200</v>
       </c>
-      <c r="J378" s="1">
-        <v>40</v>
+      <c r="J378" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K378" s="8"/>
       <c r="L378" s="3"/>
@@ -37045,8 +37048,8 @@
       <c r="I379" t="s">
         <v>1200</v>
       </c>
-      <c r="J379" s="1">
-        <v>1</v>
+      <c r="J379" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K379" s="8"/>
       <c r="L379" s="3"/>
@@ -37121,8 +37124,8 @@
       <c r="I380" t="s">
         <v>1200</v>
       </c>
-      <c r="J380" s="1">
-        <v>7</v>
+      <c r="J380" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K380" s="8"/>
       <c r="L380" s="3"/>
@@ -37197,8 +37200,8 @@
       <c r="I381" t="s">
         <v>1200</v>
       </c>
-      <c r="J381" s="1">
-        <v>20</v>
+      <c r="J381" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K381" s="8"/>
       <c r="L381" s="3"/>
@@ -37273,8 +37276,8 @@
       <c r="I382" t="s">
         <v>1200</v>
       </c>
-      <c r="J382" s="1">
-        <v>6</v>
+      <c r="J382" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K382" s="8"/>
       <c r="L382" s="3"/>
@@ -37349,8 +37352,8 @@
       <c r="I383" t="s">
         <v>1200</v>
       </c>
-      <c r="J383" s="1">
-        <v>100</v>
+      <c r="J383" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K383" s="8"/>
       <c r="L383" s="3"/>
@@ -37425,7 +37428,7 @@
       <c r="I384" t="s">
         <v>1200</v>
       </c>
-      <c r="J384" s="1">
+      <c r="J384" s="3">
         <v>300</v>
       </c>
       <c r="K384" s="8"/>
@@ -37501,7 +37504,7 @@
       <c r="I385" t="s">
         <v>2207</v>
       </c>
-      <c r="J385" s="1">
+      <c r="J385" s="3">
         <v>100000</v>
       </c>
       <c r="K385" s="8"/>
@@ -37583,7 +37586,7 @@
       <c r="I386" t="s">
         <v>2209</v>
       </c>
-      <c r="J386" s="1">
+      <c r="J386" s="3">
         <v>200000</v>
       </c>
       <c r="K386" s="8"/>
@@ -37665,7 +37668,7 @@
       <c r="I387" t="s">
         <v>2209</v>
       </c>
-      <c r="J387" s="1">
+      <c r="J387" s="3">
         <v>4000000</v>
       </c>
       <c r="K387" s="8"/>
@@ -37745,8 +37748,8 @@
       <c r="I388" t="s">
         <v>1200</v>
       </c>
-      <c r="J388" s="1">
-        <v>80</v>
+      <c r="J388" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K388" s="8"/>
       <c r="L388" s="3"/>
@@ -37823,7 +37826,7 @@
       <c r="I389" t="s">
         <v>2209</v>
       </c>
-      <c r="J389" s="1">
+      <c r="J389" s="3">
         <v>400000</v>
       </c>
       <c r="K389" s="8"/>
@@ -37905,7 +37908,7 @@
       <c r="I390" t="s">
         <v>1200</v>
       </c>
-      <c r="J390" s="1">
+      <c r="J390" s="3">
         <v>50000</v>
       </c>
       <c r="K390" s="8"/>
@@ -37985,7 +37988,7 @@
       <c r="I391" t="s">
         <v>2209</v>
       </c>
-      <c r="J391" s="1">
+      <c r="J391" s="3">
         <v>4000000</v>
       </c>
       <c r="K391" s="8"/>
@@ -38065,7 +38068,7 @@
       <c r="I392" t="s">
         <v>1200</v>
       </c>
-      <c r="J392" s="1">
+      <c r="J392" s="3">
         <v>400</v>
       </c>
       <c r="K392" s="8"/>
@@ -38143,8 +38146,8 @@
       <c r="I393" t="s">
         <v>1200</v>
       </c>
-      <c r="J393" s="1">
-        <v>30</v>
+      <c r="J393" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K393" s="8"/>
       <c r="L393" s="3"/>
@@ -38221,7 +38224,7 @@
       <c r="I394" t="s">
         <v>2209</v>
       </c>
-      <c r="J394" s="1">
+      <c r="J394" s="3">
         <v>2000000</v>
       </c>
       <c r="K394" s="8"/>
@@ -38301,8 +38304,8 @@
       <c r="I395" t="s">
         <v>2207</v>
       </c>
-      <c r="J395" s="1">
-        <v>70</v>
+      <c r="J395" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K395" s="8"/>
       <c r="L395" s="3"/>
@@ -38381,7 +38384,7 @@
       <c r="I396" t="s">
         <v>2207</v>
       </c>
-      <c r="J396" s="1">
+      <c r="J396" s="3">
         <v>200</v>
       </c>
       <c r="K396" s="8"/>
@@ -38461,8 +38464,8 @@
       <c r="I397" t="s">
         <v>2207</v>
       </c>
-      <c r="J397" s="1">
-        <v>80</v>
+      <c r="J397" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K397" s="8"/>
       <c r="L397" s="3"/>
@@ -38541,8 +38544,8 @@
       <c r="I398" t="s">
         <v>2207</v>
       </c>
-      <c r="J398" s="1">
-        <v>20</v>
+      <c r="J398" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K398" s="8"/>
       <c r="L398" s="3"/>
@@ -38623,8 +38626,8 @@
       <c r="I399" t="s">
         <v>2207</v>
       </c>
-      <c r="J399" s="1">
-        <v>3</v>
+      <c r="J399" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K399" s="8"/>
       <c r="L399" s="3"/>
@@ -38705,7 +38708,7 @@
       <c r="I400" t="s">
         <v>2207</v>
       </c>
-      <c r="J400" s="1">
+      <c r="J400" s="3">
         <v>300000</v>
       </c>
       <c r="K400" s="8"/>
@@ -38787,7 +38790,7 @@
       <c r="I401" t="s">
         <v>2207</v>
       </c>
-      <c r="J401" s="1">
+      <c r="J401" s="3">
         <v>10000000</v>
       </c>
       <c r="K401" s="8"/>
@@ -38867,7 +38870,7 @@
       <c r="I402" t="s">
         <v>2207</v>
       </c>
-      <c r="J402" s="1">
+      <c r="J402" s="3">
         <v>6000000</v>
       </c>
       <c r="K402" s="8"/>
@@ -38947,7 +38950,7 @@
       <c r="I403" t="s">
         <v>1200</v>
       </c>
-      <c r="J403" s="1">
+      <c r="J403" s="3">
         <v>400</v>
       </c>
       <c r="K403" s="8"/>
@@ -39025,8 +39028,8 @@
       <c r="I404" t="s">
         <v>1200</v>
       </c>
-      <c r="J404" s="1">
-        <v>100</v>
+      <c r="J404" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K404" s="8"/>
       <c r="L404" s="3"/>
@@ -39103,7 +39106,7 @@
       <c r="I405" t="s">
         <v>2207</v>
       </c>
-      <c r="J405" s="1">
+      <c r="J405" s="3">
         <v>800000</v>
       </c>
       <c r="K405" s="8"/>
@@ -39185,7 +39188,7 @@
       <c r="I406" t="s">
         <v>2207</v>
       </c>
-      <c r="J406" s="1">
+      <c r="J406" s="3">
         <v>20000000</v>
       </c>
       <c r="K406" s="8"/>
@@ -39265,7 +39268,7 @@
       <c r="I407" t="s">
         <v>1200</v>
       </c>
-      <c r="J407" s="1">
+      <c r="J407" s="3">
         <v>300</v>
       </c>
       <c r="K407" s="8"/>
@@ -39343,7 +39346,7 @@
       <c r="I408" t="s">
         <v>1200</v>
       </c>
-      <c r="J408" s="1">
+      <c r="J408" s="3">
         <v>500</v>
       </c>
       <c r="K408" s="8"/>
@@ -39421,8 +39424,8 @@
       <c r="I409" t="s">
         <v>1200</v>
       </c>
-      <c r="J409" s="1">
-        <v>100</v>
+      <c r="J409" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K409" s="8"/>
       <c r="L409" s="3"/>
@@ -39499,7 +39502,7 @@
       <c r="I410" t="s">
         <v>2207</v>
       </c>
-      <c r="J410" s="1">
+      <c r="J410" s="3">
         <v>10000000</v>
       </c>
       <c r="K410" s="8"/>
@@ -39579,7 +39582,7 @@
       <c r="I411" t="s">
         <v>1200</v>
       </c>
-      <c r="J411" s="1">
+      <c r="J411" s="3">
         <v>4000</v>
       </c>
       <c r="K411" s="8"/>
@@ -39657,7 +39660,7 @@
       <c r="I412" t="s">
         <v>1200</v>
       </c>
-      <c r="J412" s="1">
+      <c r="J412" s="3">
         <v>8000</v>
       </c>
       <c r="K412" s="8"/>
@@ -39735,7 +39738,7 @@
       <c r="I413" t="s">
         <v>1200</v>
       </c>
-      <c r="J413" s="1">
+      <c r="J413" s="3">
         <v>6000</v>
       </c>
       <c r="K413" s="8"/>
@@ -39813,8 +39816,8 @@
       <c r="I414" t="s">
         <v>1200</v>
       </c>
-      <c r="J414" s="1">
-        <v>50</v>
+      <c r="J414" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K414" s="8"/>
       <c r="L414" s="3"/>
@@ -39891,8 +39894,8 @@
       <c r="I415" t="s">
         <v>1200</v>
       </c>
-      <c r="J415" s="1">
-        <v>100</v>
+      <c r="J415" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K415" s="8"/>
       <c r="L415" s="3"/>
@@ -39969,8 +39972,8 @@
       <c r="I416" t="s">
         <v>1200</v>
       </c>
-      <c r="J416" s="1">
-        <v>2</v>
+      <c r="J416" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K416" s="8"/>
       <c r="L416" s="3"/>
@@ -40049,8 +40052,8 @@
       <c r="I417" t="s">
         <v>1200</v>
       </c>
-      <c r="J417" s="1">
-        <v>5</v>
+      <c r="J417" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K417" s="8"/>
       <c r="L417" s="3"/>
@@ -40129,7 +40132,7 @@
       <c r="I418" t="s">
         <v>2207</v>
       </c>
-      <c r="J418" s="1">
+      <c r="J418" s="3">
         <v>70000</v>
       </c>
       <c r="K418" s="8"/>
@@ -40209,7 +40212,7 @@
       <c r="I419" t="s">
         <v>2207</v>
       </c>
-      <c r="J419" s="1">
+      <c r="J419" s="3">
         <v>40000</v>
       </c>
       <c r="K419" s="8"/>
@@ -40289,7 +40292,7 @@
       <c r="I420" t="s">
         <v>2207</v>
       </c>
-      <c r="J420" s="1">
+      <c r="J420" s="3">
         <v>50000</v>
       </c>
       <c r="K420" s="8"/>
@@ -40369,7 +40372,7 @@
       <c r="I421" t="s">
         <v>1200</v>
       </c>
-      <c r="J421" s="1">
+      <c r="J421" s="3">
         <v>100000</v>
       </c>
       <c r="K421" s="8"/>
@@ -40447,7 +40450,7 @@
       <c r="I422" t="s">
         <v>1200</v>
       </c>
-      <c r="J422" s="1">
+      <c r="J422" s="3">
         <v>300000</v>
       </c>
       <c r="K422" s="8"/>
@@ -40525,7 +40528,7 @@
       <c r="I423" t="s">
         <v>2209</v>
       </c>
-      <c r="J423" s="1">
+      <c r="J423" s="3">
         <v>10000000</v>
       </c>
       <c r="K423" s="8"/>
@@ -40603,8 +40606,8 @@
       <c r="I424" t="s">
         <v>1200</v>
       </c>
-      <c r="J424" s="1">
-        <v>300</v>
+      <c r="J424" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K424" s="8"/>
       <c r="L424" s="3"/>
@@ -40679,8 +40682,8 @@
       <c r="I425" t="s">
         <v>1200</v>
       </c>
-      <c r="J425" s="1">
-        <v>100</v>
+      <c r="J425" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K425" s="8"/>
       <c r="L425" s="3"/>
@@ -40755,7 +40758,7 @@
       <c r="I426" t="s">
         <v>1200</v>
       </c>
-      <c r="J426" s="1">
+      <c r="J426" s="3">
         <v>400000</v>
       </c>
       <c r="K426" s="8"/>
@@ -40831,7 +40834,7 @@
       <c r="I427" t="s">
         <v>2209</v>
       </c>
-      <c r="J427" s="1">
+      <c r="J427" s="3">
         <v>3000</v>
       </c>
       <c r="K427" s="8"/>
@@ -40909,7 +40912,7 @@
       <c r="I428" t="s">
         <v>2209</v>
       </c>
-      <c r="J428" s="1">
+      <c r="J428" s="3">
         <v>6000000</v>
       </c>
       <c r="K428" s="8"/>
@@ -40987,7 +40990,7 @@
       <c r="I429" t="s">
         <v>2209</v>
       </c>
-      <c r="J429" s="1">
+      <c r="J429" s="3">
         <v>400000</v>
       </c>
       <c r="K429" s="8"/>
@@ -41067,7 +41070,7 @@
       <c r="I430" t="s">
         <v>2209</v>
       </c>
-      <c r="J430" s="1">
+      <c r="J430" s="3">
         <v>10000000</v>
       </c>
       <c r="K430" s="8"/>
@@ -41145,7 +41148,7 @@
       <c r="I431" t="s">
         <v>1200</v>
       </c>
-      <c r="J431" s="1">
+      <c r="J431" s="3">
         <v>600</v>
       </c>
       <c r="K431" s="8"/>
@@ -41221,7 +41224,7 @@
       <c r="I432" t="s">
         <v>1200</v>
       </c>
-      <c r="J432" s="1">
+      <c r="J432" s="3">
         <v>600</v>
       </c>
       <c r="K432" s="8"/>
@@ -41297,7 +41300,7 @@
       <c r="I433" t="s">
         <v>2209</v>
       </c>
-      <c r="J433" s="1">
+      <c r="J433" s="3">
         <v>8000</v>
       </c>
       <c r="K433" s="8"/>
@@ -41377,7 +41380,7 @@
       <c r="I434" t="s">
         <v>2209</v>
       </c>
-      <c r="J434" s="1">
+      <c r="J434" s="3">
         <v>20000</v>
       </c>
       <c r="K434" s="8"/>
@@ -41457,7 +41460,7 @@
       <c r="I435" t="s">
         <v>2209</v>
       </c>
-      <c r="J435" s="1">
+      <c r="J435" s="3">
         <v>10000</v>
       </c>
       <c r="K435" s="8"/>
@@ -41537,7 +41540,7 @@
       <c r="I436" t="s">
         <v>2209</v>
       </c>
-      <c r="J436" s="1">
+      <c r="J436" s="3">
         <v>20000</v>
       </c>
       <c r="K436" s="8"/>
@@ -41619,7 +41622,7 @@
       <c r="I437" t="s">
         <v>2209</v>
       </c>
-      <c r="J437" s="1">
+      <c r="J437" s="3">
         <v>30000</v>
       </c>
       <c r="K437" s="8"/>
@@ -41701,7 +41704,7 @@
       <c r="I438" t="s">
         <v>1200</v>
       </c>
-      <c r="J438" s="1">
+      <c r="J438" s="3">
         <v>1000</v>
       </c>
       <c r="K438" s="8"/>
@@ -41781,7 +41784,7 @@
       <c r="I439" t="s">
         <v>2207</v>
       </c>
-      <c r="J439" s="1">
+      <c r="J439" s="3">
         <v>2000</v>
       </c>
       <c r="K439" s="8"/>
@@ -41861,7 +41864,7 @@
       <c r="I440" t="s">
         <v>2207</v>
       </c>
-      <c r="J440" s="1">
+      <c r="J440" s="3">
         <v>2000</v>
       </c>
       <c r="K440" s="8"/>
@@ -41941,7 +41944,7 @@
       <c r="I441" t="s">
         <v>2207</v>
       </c>
-      <c r="J441" s="1">
+      <c r="J441" s="3">
         <v>300</v>
       </c>
       <c r="K441" s="8"/>
@@ -42021,8 +42024,8 @@
       <c r="I442" t="s">
         <v>2207</v>
       </c>
-      <c r="J442" s="1">
-        <v>100</v>
+      <c r="J442" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K442" s="8"/>
       <c r="L442" s="3"/>
@@ -42101,8 +42104,8 @@
       <c r="I443" t="s">
         <v>1200</v>
       </c>
-      <c r="J443" s="1">
-        <v>10</v>
+      <c r="J443" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K443" s="8"/>
       <c r="L443" s="3"/>
@@ -42179,8 +42182,8 @@
       <c r="I444" t="s">
         <v>1200</v>
       </c>
-      <c r="J444" s="1">
-        <v>100</v>
+      <c r="J444" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K444" s="8"/>
       <c r="L444" s="3"/>
@@ -42257,8 +42260,8 @@
       <c r="I445" t="s">
         <v>1200</v>
       </c>
-      <c r="J445" s="1">
-        <v>6</v>
+      <c r="J445" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K445" s="8"/>
       <c r="L445" s="3"/>
@@ -42335,7 +42338,7 @@
       <c r="I446" t="s">
         <v>2209</v>
       </c>
-      <c r="J446" s="1">
+      <c r="J446" s="3">
         <v>1000000</v>
       </c>
       <c r="K446" s="8"/>
@@ -42415,8 +42418,8 @@
       <c r="I447" t="s">
         <v>1200</v>
       </c>
-      <c r="J447" s="1">
-        <v>100</v>
+      <c r="J447" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K447" s="8"/>
       <c r="L447" s="3"/>
@@ -42493,7 +42496,7 @@
       <c r="I448" t="s">
         <v>2209</v>
       </c>
-      <c r="J448" s="1">
+      <c r="J448" s="3">
         <v>20000</v>
       </c>
       <c r="K448" s="8"/>
@@ -42575,7 +42578,7 @@
       <c r="I449" t="s">
         <v>2209</v>
       </c>
-      <c r="J449" s="1">
+      <c r="J449" s="3">
         <v>60000</v>
       </c>
       <c r="K449" s="8"/>
@@ -42657,7 +42660,7 @@
       <c r="I450" t="s">
         <v>2209</v>
       </c>
-      <c r="J450" s="1">
+      <c r="J450" s="3">
         <v>20000</v>
       </c>
       <c r="K450" s="8"/>
@@ -42739,7 +42742,7 @@
       <c r="I451" t="s">
         <v>2209</v>
       </c>
-      <c r="J451" s="1">
+      <c r="J451" s="3">
         <v>1000000</v>
       </c>
       <c r="K451" s="8"/>
@@ -42819,7 +42822,7 @@
       <c r="I452" t="s">
         <v>2209</v>
       </c>
-      <c r="J452" s="1">
+      <c r="J452" s="3">
         <v>10000</v>
       </c>
       <c r="K452" s="8"/>
@@ -42901,7 +42904,7 @@
       <c r="I453" t="s">
         <v>2209</v>
       </c>
-      <c r="J453" s="1">
+      <c r="J453" s="3">
         <v>10000</v>
       </c>
       <c r="K453" s="8"/>
@@ -42983,7 +42986,7 @@
       <c r="I454" t="s">
         <v>1200</v>
       </c>
-      <c r="J454" s="1">
+      <c r="J454" s="3">
         <v>10000</v>
       </c>
       <c r="K454" s="8"/>
@@ -43063,7 +43066,7 @@
       <c r="I455" t="s">
         <v>2209</v>
       </c>
-      <c r="J455" s="1">
+      <c r="J455" s="3">
         <v>500000</v>
       </c>
       <c r="K455" s="8"/>
@@ -43143,7 +43146,7 @@
       <c r="I456" t="s">
         <v>2209</v>
       </c>
-      <c r="J456" s="1">
+      <c r="J456" s="3">
         <v>30000</v>
       </c>
       <c r="K456" s="8"/>
@@ -43223,7 +43226,7 @@
       <c r="I457" t="s">
         <v>2209</v>
       </c>
-      <c r="J457" s="1">
+      <c r="J457" s="3">
         <v>30000</v>
       </c>
       <c r="K457" s="8"/>
@@ -43303,7 +43306,7 @@
       <c r="I458" t="s">
         <v>2209</v>
       </c>
-      <c r="J458" s="1">
+      <c r="J458" s="3">
         <v>8000</v>
       </c>
       <c r="K458" s="8"/>
@@ -43383,7 +43386,7 @@
       <c r="I459" t="s">
         <v>2209</v>
       </c>
-      <c r="J459" s="1">
+      <c r="J459" s="3">
         <v>6000</v>
       </c>
       <c r="K459" s="8"/>
@@ -43465,7 +43468,7 @@
       <c r="I460" t="s">
         <v>2209</v>
       </c>
-      <c r="J460" s="1">
+      <c r="J460" s="3">
         <v>2000</v>
       </c>
       <c r="K460" s="8"/>
@@ -43547,7 +43550,7 @@
       <c r="I461" t="s">
         <v>1200</v>
       </c>
-      <c r="J461" s="1">
+      <c r="J461" s="3">
         <v>1000</v>
       </c>
       <c r="K461" s="8"/>
@@ -43627,8 +43630,8 @@
       <c r="I462" t="s">
         <v>2207</v>
       </c>
-      <c r="J462" s="1">
-        <v>100</v>
+      <c r="J462" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K462" s="8"/>
       <c r="L462" s="3"/>
@@ -43707,7 +43710,7 @@
       <c r="I463" t="s">
         <v>2207</v>
       </c>
-      <c r="J463" s="1">
+      <c r="J463" s="3">
         <v>200</v>
       </c>
       <c r="K463" s="8"/>
@@ -43787,8 +43790,8 @@
       <c r="I464" t="s">
         <v>1200</v>
       </c>
-      <c r="J464" s="1">
-        <v>20</v>
+      <c r="J464" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K464" s="8"/>
       <c r="L464" s="3"/>
@@ -43863,7 +43866,7 @@
       <c r="I465" t="s">
         <v>1200</v>
       </c>
-      <c r="J465" s="1">
+      <c r="J465" s="3">
         <v>800</v>
       </c>
       <c r="K465" s="8"/>
@@ -43939,7 +43942,7 @@
       <c r="I466" t="s">
         <v>1200</v>
       </c>
-      <c r="J466" s="1">
+      <c r="J466" s="3">
         <v>1000</v>
       </c>
       <c r="K466" s="8"/>
@@ -44015,7 +44018,7 @@
       <c r="I467" t="s">
         <v>2207</v>
       </c>
-      <c r="J467" s="1">
+      <c r="J467" s="3">
         <v>60000</v>
       </c>
       <c r="K467" s="8"/>
@@ -44095,7 +44098,7 @@
       <c r="I468" t="s">
         <v>2207</v>
       </c>
-      <c r="J468" s="1">
+      <c r="J468" s="3">
         <v>20000</v>
       </c>
       <c r="K468" s="8"/>
@@ -44175,7 +44178,7 @@
       <c r="I469" t="s">
         <v>2207</v>
       </c>
-      <c r="J469" s="1">
+      <c r="J469" s="3">
         <v>200000</v>
       </c>
       <c r="K469" s="8"/>
@@ -44257,7 +44260,7 @@
       <c r="I470" t="s">
         <v>2207</v>
       </c>
-      <c r="J470" s="1">
+      <c r="J470" s="3">
         <v>50000</v>
       </c>
       <c r="K470" s="8"/>
@@ -44337,7 +44340,7 @@
       <c r="I471" t="s">
         <v>2207</v>
       </c>
-      <c r="J471" s="1">
+      <c r="J471" s="3">
         <v>10000000</v>
       </c>
       <c r="K471" s="8"/>
@@ -44417,7 +44420,7 @@
       <c r="I472" t="s">
         <v>1200</v>
       </c>
-      <c r="J472" s="1">
+      <c r="J472" s="3">
         <v>600</v>
       </c>
       <c r="K472" s="8"/>
@@ -44497,7 +44500,7 @@
       <c r="I473" t="s">
         <v>1200</v>
       </c>
-      <c r="J473" s="1">
+      <c r="J473" s="3">
         <v>1000</v>
       </c>
       <c r="K473" s="8"/>
@@ -44577,7 +44580,7 @@
       <c r="I474" t="s">
         <v>2207</v>
       </c>
-      <c r="J474" s="1">
+      <c r="J474" s="3">
         <v>300000</v>
       </c>
       <c r="K474" s="8"/>
@@ -44659,7 +44662,7 @@
       <c r="I475" t="s">
         <v>2207</v>
       </c>
-      <c r="J475" s="1">
+      <c r="J475" s="3">
         <v>20000000</v>
       </c>
       <c r="K475" s="8"/>
@@ -44739,7 +44742,7 @@
       <c r="I476" t="s">
         <v>1200</v>
       </c>
-      <c r="J476" s="1">
+      <c r="J476" s="3">
         <v>500</v>
       </c>
       <c r="K476" s="8"/>
@@ -44817,7 +44820,7 @@
       <c r="I477" t="s">
         <v>1200</v>
       </c>
-      <c r="J477" s="1">
+      <c r="J477" s="3">
         <v>600</v>
       </c>
       <c r="K477" s="8"/>
@@ -44895,7 +44898,7 @@
       <c r="I478" t="s">
         <v>1200</v>
       </c>
-      <c r="J478" s="1">
+      <c r="J478" s="3">
         <v>800</v>
       </c>
       <c r="K478" s="8"/>
@@ -44975,7 +44978,7 @@
       <c r="I479" t="s">
         <v>1200</v>
       </c>
-      <c r="J479" s="1">
+      <c r="J479" s="3">
         <v>2000</v>
       </c>
       <c r="K479" s="8"/>
@@ -45055,7 +45058,7 @@
       <c r="I480" t="s">
         <v>2207</v>
       </c>
-      <c r="J480" s="1">
+      <c r="J480" s="3">
         <v>8000000</v>
       </c>
       <c r="K480" s="8"/>
@@ -45135,8 +45138,8 @@
       <c r="I481" t="s">
         <v>1200</v>
       </c>
-      <c r="J481" s="1">
-        <v>100</v>
+      <c r="J481" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K481" s="8"/>
       <c r="L481" s="3"/>
@@ -45213,8 +45216,8 @@
       <c r="I482" t="s">
         <v>1200</v>
       </c>
-      <c r="J482" s="1">
-        <v>100</v>
+      <c r="J482" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K482" s="8"/>
       <c r="L482" s="3"/>
@@ -45291,7 +45294,7 @@
       <c r="I483" t="s">
         <v>1200</v>
       </c>
-      <c r="J483" s="1">
+      <c r="J483" s="3">
         <v>1000</v>
       </c>
       <c r="K483" s="8"/>
@@ -45369,8 +45372,8 @@
       <c r="I484" t="s">
         <v>1200</v>
       </c>
-      <c r="J484" s="1">
-        <v>70</v>
+      <c r="J484" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K484" s="8"/>
       <c r="L484" s="3"/>
@@ -45447,7 +45450,7 @@
       <c r="I485" t="s">
         <v>1200</v>
       </c>
-      <c r="J485" s="1">
+      <c r="J485" s="3">
         <v>800</v>
       </c>
       <c r="K485" s="8"/>
@@ -45527,7 +45530,7 @@
       <c r="I486" t="s">
         <v>1200</v>
       </c>
-      <c r="J486" s="1">
+      <c r="J486" s="3">
         <v>300</v>
       </c>
       <c r="K486" s="8"/>
@@ -45605,8 +45608,8 @@
       <c r="I487" t="s">
         <v>2207</v>
       </c>
-      <c r="J487" s="1">
-        <v>100</v>
+      <c r="J487" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K487" s="8"/>
       <c r="L487" s="3"/>
@@ -45685,8 +45688,8 @@
       <c r="I488" t="s">
         <v>2207</v>
       </c>
-      <c r="J488" s="1">
-        <v>50</v>
+      <c r="J488" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K488" s="8"/>
       <c r="L488" s="3"/>
@@ -45765,8 +45768,8 @@
       <c r="I489" t="s">
         <v>2207</v>
       </c>
-      <c r="J489" s="1">
-        <v>100</v>
+      <c r="J489" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K489" s="8"/>
       <c r="L489" s="3"/>
@@ -45845,7 +45848,7 @@
       <c r="I490" t="s">
         <v>2207</v>
       </c>
-      <c r="J490" s="1">
+      <c r="J490" s="3">
         <v>200</v>
       </c>
       <c r="K490" s="8"/>
@@ -45925,7 +45928,7 @@
       <c r="I491" t="s">
         <v>2207</v>
       </c>
-      <c r="J491" s="1">
+      <c r="J491" s="3">
         <v>20000</v>
       </c>
       <c r="K491" s="8"/>
@@ -46007,7 +46010,7 @@
       <c r="I492" t="s">
         <v>2207</v>
       </c>
-      <c r="J492" s="1">
+      <c r="J492" s="3">
         <v>200000</v>
       </c>
       <c r="K492" s="8"/>
@@ -46087,7 +46090,7 @@
       <c r="I493" t="s">
         <v>2207</v>
       </c>
-      <c r="J493" s="1">
+      <c r="J493" s="3">
         <v>300000</v>
       </c>
       <c r="K493" s="8"/>
@@ -46167,7 +46170,7 @@
       <c r="I494" t="s">
         <v>2207</v>
       </c>
-      <c r="J494" s="1">
+      <c r="J494" s="3">
         <v>200000</v>
       </c>
       <c r="K494" s="8"/>
@@ -46247,7 +46250,7 @@
       <c r="I495" t="s">
         <v>2207</v>
       </c>
-      <c r="J495" s="1">
+      <c r="J495" s="3">
         <v>100000</v>
       </c>
       <c r="K495" s="8"/>
@@ -46327,8 +46330,8 @@
       <c r="I496" t="s">
         <v>1200</v>
       </c>
-      <c r="J496" s="1">
-        <v>1</v>
+      <c r="J496" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K496" s="8"/>
       <c r="L496" s="3"/>
@@ -46405,7 +46408,7 @@
       <c r="I497" t="s">
         <v>2207</v>
       </c>
-      <c r="J497" s="1">
+      <c r="J497" s="3">
         <v>10000000</v>
       </c>
       <c r="K497" s="8"/>
@@ -46485,7 +46488,7 @@
       <c r="I498" t="s">
         <v>2207</v>
       </c>
-      <c r="J498" s="1">
+      <c r="J498" s="3">
         <v>500000</v>
       </c>
       <c r="K498" s="8"/>
@@ -46565,7 +46568,7 @@
       <c r="I499" t="s">
         <v>1200</v>
       </c>
-      <c r="J499" s="1">
+      <c r="J499" s="3">
         <v>200</v>
       </c>
       <c r="K499" s="8"/>
@@ -46643,7 +46646,7 @@
       <c r="I500" t="s">
         <v>1200</v>
       </c>
-      <c r="J500" s="1">
+      <c r="J500" s="3">
         <v>1000</v>
       </c>
       <c r="K500" s="8"/>
@@ -46721,7 +46724,7 @@
       <c r="I501" t="s">
         <v>2207</v>
       </c>
-      <c r="J501" s="1">
+      <c r="J501" s="3">
         <v>40000000</v>
       </c>
       <c r="K501" s="8"/>
@@ -46801,7 +46804,7 @@
       <c r="I502" t="s">
         <v>2207</v>
       </c>
-      <c r="J502" s="1">
+      <c r="J502" s="3">
         <v>2000000</v>
       </c>
       <c r="K502" s="8"/>
@@ -46881,7 +46884,7 @@
       <c r="I503" t="s">
         <v>1200</v>
       </c>
-      <c r="J503" s="1">
+      <c r="J503" s="3">
         <v>600</v>
       </c>
       <c r="K503" s="8"/>
@@ -46959,7 +46962,7 @@
       <c r="I504" t="s">
         <v>1200</v>
       </c>
-      <c r="J504" s="1">
+      <c r="J504" s="3">
         <v>1000</v>
       </c>
       <c r="K504" s="8"/>
@@ -47037,7 +47040,7 @@
       <c r="I505" t="s">
         <v>2207</v>
       </c>
-      <c r="J505" s="1">
+      <c r="J505" s="3">
         <v>20000000</v>
       </c>
       <c r="K505" s="8"/>
@@ -47117,7 +47120,7 @@
       <c r="I506" t="s">
         <v>2207</v>
       </c>
-      <c r="J506" s="1">
+      <c r="J506" s="3">
         <v>1000000</v>
       </c>
       <c r="K506" s="8"/>
@@ -47197,7 +47200,7 @@
       <c r="I507" t="s">
         <v>1200</v>
       </c>
-      <c r="J507" s="1">
+      <c r="J507" s="3">
         <v>300</v>
       </c>
       <c r="K507" s="8"/>
@@ -47275,7 +47278,7 @@
       <c r="I508" t="s">
         <v>1200</v>
       </c>
-      <c r="J508" s="1">
+      <c r="J508" s="3">
         <v>20000</v>
       </c>
       <c r="K508" s="8"/>
@@ -47353,7 +47356,7 @@
       <c r="I509" t="s">
         <v>1200</v>
       </c>
-      <c r="J509" s="1">
+      <c r="J509" s="3">
         <v>4000</v>
       </c>
       <c r="K509" s="8"/>
@@ -47431,7 +47434,7 @@
       <c r="I510" t="s">
         <v>2207</v>
       </c>
-      <c r="J510" s="1">
+      <c r="J510" s="3">
         <v>30000000</v>
       </c>
       <c r="K510" s="8"/>
@@ -47511,7 +47514,7 @@
       <c r="I511" t="s">
         <v>2207</v>
       </c>
-      <c r="J511" s="1">
+      <c r="J511" s="3">
         <v>1000000</v>
       </c>
       <c r="K511" s="8"/>
@@ -47591,7 +47594,7 @@
       <c r="I512" t="s">
         <v>1200</v>
       </c>
-      <c r="J512" s="1">
+      <c r="J512" s="3">
         <v>900</v>
       </c>
       <c r="K512" s="8"/>
@@ -47669,7 +47672,7 @@
       <c r="I513" t="s">
         <v>1200</v>
       </c>
-      <c r="J513" s="1">
+      <c r="J513" s="3">
         <v>8000</v>
       </c>
       <c r="K513" s="8"/>
@@ -47747,7 +47750,7 @@
       <c r="I514" t="s">
         <v>1200</v>
       </c>
-      <c r="J514" s="1">
+      <c r="J514" s="3">
         <v>200</v>
       </c>
       <c r="K514" s="8"/>
@@ -47823,7 +47826,7 @@
       <c r="I515" t="s">
         <v>1200</v>
       </c>
-      <c r="J515" s="1">
+      <c r="J515" s="3">
         <v>60000</v>
       </c>
       <c r="K515" s="8"/>
@@ -47899,7 +47902,7 @@
       <c r="I516" t="s">
         <v>2208</v>
       </c>
-      <c r="J516" s="1">
+      <c r="J516" s="3">
         <v>6000</v>
       </c>
       <c r="K516" s="8"/>
@@ -47979,7 +47982,7 @@
       <c r="I517" t="s">
         <v>2208</v>
       </c>
-      <c r="J517" s="1">
+      <c r="J517" s="3">
         <v>3000</v>
       </c>
       <c r="K517" s="8"/>
@@ -48059,7 +48062,7 @@
       <c r="I518" t="s">
         <v>2209</v>
       </c>
-      <c r="J518" s="1">
+      <c r="J518" s="3">
         <v>60000</v>
       </c>
       <c r="K518" s="8"/>
@@ -48139,7 +48142,7 @@
       <c r="I519" t="s">
         <v>2209</v>
       </c>
-      <c r="J519" s="1">
+      <c r="J519" s="3">
         <v>60000</v>
       </c>
       <c r="K519" s="8"/>
@@ -48219,7 +48222,7 @@
       <c r="I520" t="s">
         <v>2209</v>
       </c>
-      <c r="J520" s="1">
+      <c r="J520" s="3">
         <v>70000</v>
       </c>
       <c r="K520" s="8"/>
@@ -48299,7 +48302,7 @@
       <c r="I521" t="s">
         <v>2209</v>
       </c>
-      <c r="J521" s="1">
+      <c r="J521" s="3">
         <v>4000</v>
       </c>
       <c r="K521" s="8"/>
@@ -48381,7 +48384,7 @@
       <c r="I522" t="s">
         <v>2209</v>
       </c>
-      <c r="J522" s="1">
+      <c r="J522" s="3">
         <v>3000</v>
       </c>
       <c r="K522" s="8"/>
@@ -48463,7 +48466,7 @@
       <c r="I523" t="s">
         <v>2209</v>
       </c>
-      <c r="J523" s="1">
+      <c r="J523" s="3">
         <v>2000</v>
       </c>
       <c r="K523" s="8"/>
@@ -48545,7 +48548,7 @@
       <c r="I524" t="s">
         <v>2209</v>
       </c>
-      <c r="J524" s="1">
+      <c r="J524" s="3">
         <v>9000</v>
       </c>
       <c r="K524" s="8"/>
@@ -48629,7 +48632,7 @@
       <c r="I525" t="s">
         <v>2209</v>
       </c>
-      <c r="J525" s="1">
+      <c r="J525" s="3">
         <v>6000</v>
       </c>
       <c r="K525" s="8"/>
@@ -48713,7 +48716,7 @@
       <c r="I526" t="s">
         <v>2209</v>
       </c>
-      <c r="J526" s="1">
+      <c r="J526" s="3">
         <v>5000</v>
       </c>
       <c r="K526" s="8"/>
@@ -48797,7 +48800,7 @@
       <c r="I527" t="s">
         <v>2209</v>
       </c>
-      <c r="J527" s="1">
+      <c r="J527" s="3">
         <v>4000</v>
       </c>
       <c r="K527" s="8"/>
@@ -48881,7 +48884,7 @@
       <c r="I528" t="s">
         <v>2209</v>
       </c>
-      <c r="J528" s="1">
+      <c r="J528" s="3">
         <v>1000</v>
       </c>
       <c r="K528" s="8"/>
@@ -48965,7 +48968,7 @@
       <c r="I529" t="s">
         <v>1200</v>
       </c>
-      <c r="J529" s="1">
+      <c r="J529" s="3">
         <v>60000</v>
       </c>
       <c r="K529" s="8"/>
@@ -49043,7 +49046,7 @@
       <c r="I530" t="s">
         <v>1200</v>
       </c>
-      <c r="J530" s="1">
+      <c r="J530" s="3">
         <v>40000</v>
       </c>
       <c r="K530" s="8"/>
@@ -49121,7 +49124,7 @@
       <c r="I531" t="s">
         <v>2207</v>
       </c>
-      <c r="J531" s="1">
+      <c r="J531" s="3">
         <v>2000</v>
       </c>
       <c r="K531" s="8"/>
@@ -49201,7 +49204,7 @@
       <c r="I532" t="s">
         <v>2207</v>
       </c>
-      <c r="J532" s="1">
+      <c r="J532" s="3">
         <v>1000</v>
       </c>
       <c r="K532" s="8"/>
@@ -49281,7 +49284,7 @@
       <c r="I533" t="s">
         <v>2207</v>
       </c>
-      <c r="J533" s="1">
+      <c r="J533" s="3">
         <v>2000</v>
       </c>
       <c r="K533" s="8"/>
@@ -49361,7 +49364,7 @@
       <c r="I534" t="s">
         <v>1200</v>
       </c>
-      <c r="J534" s="1">
+      <c r="J534" s="3">
         <v>10000</v>
       </c>
       <c r="K534" s="8"/>
@@ -49441,7 +49444,7 @@
       <c r="I535" t="s">
         <v>2209</v>
       </c>
-      <c r="J535" s="1">
+      <c r="J535" s="3">
         <v>400000</v>
       </c>
       <c r="K535" s="8"/>
@@ -49521,7 +49524,7 @@
       <c r="I536" t="s">
         <v>2209</v>
       </c>
-      <c r="J536" s="1">
+      <c r="J536" s="3">
         <v>90000</v>
       </c>
       <c r="K536" s="8"/>
@@ -49603,7 +49606,7 @@
       <c r="I537" t="s">
         <v>2209</v>
       </c>
-      <c r="J537" s="1">
+      <c r="J537" s="3">
         <v>1000000</v>
       </c>
       <c r="K537" s="8"/>
@@ -49683,7 +49686,7 @@
       <c r="I538" t="s">
         <v>2209</v>
       </c>
-      <c r="J538" s="1">
+      <c r="J538" s="3">
         <v>100000</v>
       </c>
       <c r="K538" s="8"/>
@@ -49765,7 +49768,7 @@
       <c r="I539" t="s">
         <v>1200</v>
       </c>
-      <c r="J539" s="1">
+      <c r="J539" s="3">
         <v>10000</v>
       </c>
       <c r="K539" s="8"/>
@@ -49845,7 +49848,7 @@
       <c r="I540" t="s">
         <v>2209</v>
       </c>
-      <c r="J540" s="1">
+      <c r="J540" s="3">
         <v>900000</v>
       </c>
       <c r="K540" s="8"/>
@@ -49925,8 +49928,8 @@
       <c r="I541" t="s">
         <v>2207</v>
       </c>
-      <c r="J541" s="1">
-        <v>7</v>
+      <c r="J541" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K541" s="8"/>
       <c r="L541" s="3"/>
@@ -50005,8 +50008,8 @@
       <c r="I542" t="s">
         <v>2207</v>
       </c>
-      <c r="J542" s="1">
-        <v>60</v>
+      <c r="J542" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K542" s="8"/>
       <c r="L542" s="3"/>
@@ -50085,8 +50088,8 @@
       <c r="I543" t="s">
         <v>2207</v>
       </c>
-      <c r="J543" s="1">
-        <v>30</v>
+      <c r="J543" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K543" s="8"/>
       <c r="L543" s="3"/>
@@ -50165,7 +50168,7 @@
       <c r="I544" t="s">
         <v>2209</v>
       </c>
-      <c r="J544" s="1">
+      <c r="J544" s="3">
         <v>8000</v>
       </c>
       <c r="K544" s="8"/>
@@ -50245,7 +50248,7 @@
       <c r="I545" t="s">
         <v>2209</v>
       </c>
-      <c r="J545" s="1">
+      <c r="J545" s="3">
         <v>4000</v>
       </c>
       <c r="K545" s="8"/>
@@ -50325,7 +50328,7 @@
       <c r="I546" t="s">
         <v>2209</v>
       </c>
-      <c r="J546" s="1">
+      <c r="J546" s="3">
         <v>10000</v>
       </c>
       <c r="K546" s="8"/>
@@ -50405,8 +50408,8 @@
       <c r="I547" t="s">
         <v>1200</v>
       </c>
-      <c r="J547" s="1">
-        <v>3</v>
+      <c r="J547" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K547" s="8"/>
       <c r="L547" s="3"/>
@@ -50485,8 +50488,8 @@
       <c r="I548" t="s">
         <v>1200</v>
       </c>
-      <c r="J548" s="1">
-        <v>2</v>
+      <c r="J548" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K548" s="8"/>
       <c r="L548" s="3"/>
@@ -50565,8 +50568,8 @@
       <c r="I549" t="s">
         <v>1200</v>
       </c>
-      <c r="J549" s="1">
-        <v>1</v>
+      <c r="J549" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K549" s="8"/>
       <c r="L549" s="3"/>
@@ -50643,8 +50646,8 @@
       <c r="I550" t="s">
         <v>1200</v>
       </c>
-      <c r="J550" s="1">
-        <v>2</v>
+      <c r="J550" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K550" s="8"/>
       <c r="L550" s="3"/>
@@ -50721,7 +50724,7 @@
       <c r="I551" t="s">
         <v>2207</v>
       </c>
-      <c r="J551" s="1">
+      <c r="J551" s="3">
         <v>200000</v>
       </c>
       <c r="K551" s="8"/>
@@ -50801,7 +50804,7 @@
       <c r="I552" t="s">
         <v>2207</v>
       </c>
-      <c r="J552" s="1">
+      <c r="J552" s="3">
         <v>500000</v>
       </c>
       <c r="K552" s="8"/>
@@ -50881,7 +50884,7 @@
       <c r="I553" t="s">
         <v>2207</v>
       </c>
-      <c r="J553" s="1">
+      <c r="J553" s="3">
         <v>200000</v>
       </c>
       <c r="K553" s="8"/>
@@ -50961,7 +50964,7 @@
       <c r="I554" t="s">
         <v>2207</v>
       </c>
-      <c r="J554" s="1">
+      <c r="J554" s="3">
         <v>60000</v>
       </c>
       <c r="K554" s="8"/>
@@ -51041,7 +51044,7 @@
       <c r="I555" t="s">
         <v>2207</v>
       </c>
-      <c r="J555" s="1">
+      <c r="J555" s="3">
         <v>300</v>
       </c>
       <c r="K555" s="8"/>
@@ -51123,7 +51126,7 @@
       <c r="I556" t="s">
         <v>2207</v>
       </c>
-      <c r="J556" s="1">
+      <c r="J556" s="3">
         <v>7000</v>
       </c>
       <c r="K556" s="8"/>
@@ -51205,7 +51208,7 @@
       <c r="I557" t="s">
         <v>1200</v>
       </c>
-      <c r="J557" s="1">
+      <c r="J557" s="3">
         <v>1000</v>
       </c>
       <c r="K557" s="8"/>
@@ -51283,7 +51286,7 @@
       <c r="I558" t="s">
         <v>2207</v>
       </c>
-      <c r="J558" s="1">
+      <c r="J558" s="3">
         <v>20000</v>
       </c>
       <c r="K558" s="8"/>
@@ -51363,7 +51366,7 @@
       <c r="I559" t="s">
         <v>2207</v>
       </c>
-      <c r="J559" s="1">
+      <c r="J559" s="3">
         <v>10000</v>
       </c>
       <c r="K559" s="8"/>
@@ -51443,7 +51446,7 @@
       <c r="I560" t="s">
         <v>2207</v>
       </c>
-      <c r="J560" s="1">
+      <c r="J560" s="3">
         <v>6000</v>
       </c>
       <c r="K560" s="8"/>
@@ -51523,7 +51526,7 @@
       <c r="I561" t="s">
         <v>2207</v>
       </c>
-      <c r="J561" s="1">
+      <c r="J561" s="3">
         <v>40000</v>
       </c>
       <c r="K561" s="8"/>
@@ -51603,7 +51606,7 @@
       <c r="I562" t="s">
         <v>2207</v>
       </c>
-      <c r="J562" s="1">
+      <c r="J562" s="3">
         <v>30000</v>
       </c>
       <c r="K562" s="8"/>
@@ -51683,7 +51686,7 @@
       <c r="I563" t="s">
         <v>2207</v>
       </c>
-      <c r="J563" s="1">
+      <c r="J563" s="3">
         <v>20000</v>
       </c>
       <c r="K563" s="8"/>
@@ -51763,7 +51766,7 @@
       <c r="I564" t="s">
         <v>2207</v>
       </c>
-      <c r="J564" s="1">
+      <c r="J564" s="3">
         <v>40000</v>
       </c>
       <c r="K564" s="8"/>
@@ -51843,7 +51846,7 @@
       <c r="I565" t="s">
         <v>2207</v>
       </c>
-      <c r="J565" s="1">
+      <c r="J565" s="3">
         <v>30000</v>
       </c>
       <c r="K565" s="8"/>
@@ -51923,7 +51926,7 @@
       <c r="I566" t="s">
         <v>1200</v>
       </c>
-      <c r="J566" s="1">
+      <c r="J566" s="3">
         <v>10000</v>
       </c>
       <c r="K566" s="8"/>
@@ -51999,7 +52002,7 @@
       <c r="I567" t="s">
         <v>2207</v>
       </c>
-      <c r="J567" s="1">
+      <c r="J567" s="3">
         <v>2000</v>
       </c>
       <c r="K567" s="8"/>
@@ -52077,7 +52080,7 @@
       <c r="I568" t="s">
         <v>1200</v>
       </c>
-      <c r="J568" s="1">
+      <c r="J568" s="3">
         <v>1000</v>
       </c>
       <c r="K568" s="8"/>
@@ -52153,7 +52156,7 @@
       <c r="I569" t="s">
         <v>2209</v>
       </c>
-      <c r="J569" s="1">
+      <c r="J569" s="3">
         <v>200000</v>
       </c>
       <c r="K569" s="8"/>
@@ -52235,7 +52238,7 @@
       <c r="I570" t="s">
         <v>2209</v>
       </c>
-      <c r="J570" s="1">
+      <c r="J570" s="3">
         <v>80000</v>
       </c>
       <c r="K570" s="8"/>
@@ -52317,7 +52320,7 @@
       <c r="I571" t="s">
         <v>2209</v>
       </c>
-      <c r="J571" s="1">
+      <c r="J571" s="3">
         <v>2000000</v>
       </c>
       <c r="K571" s="8"/>
@@ -52397,7 +52400,7 @@
       <c r="I572" t="s">
         <v>1200</v>
       </c>
-      <c r="J572" s="1">
+      <c r="J572" s="3">
         <v>6000</v>
       </c>
       <c r="K572" s="8"/>
@@ -52475,7 +52478,7 @@
       <c r="I573" t="s">
         <v>1200</v>
       </c>
-      <c r="J573" s="1">
+      <c r="J573" s="3">
         <v>60000</v>
       </c>
       <c r="K573" s="8"/>
@@ -52553,8 +52556,8 @@
       <c r="I574" t="s">
         <v>1200</v>
       </c>
-      <c r="J574" s="1">
-        <v>100</v>
+      <c r="J574" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K574" s="8"/>
       <c r="L574" s="3"/>
@@ -52631,7 +52634,7 @@
       <c r="I575" t="s">
         <v>2209</v>
       </c>
-      <c r="J575" s="1">
+      <c r="J575" s="3">
         <v>900000</v>
       </c>
       <c r="K575" s="8"/>
@@ -52711,7 +52714,7 @@
       <c r="I576" t="s">
         <v>2209</v>
       </c>
-      <c r="J576" s="1">
+      <c r="J576" s="3">
         <v>50000</v>
       </c>
       <c r="K576" s="8"/>
@@ -52791,7 +52794,7 @@
       <c r="I577" t="s">
         <v>2209</v>
       </c>
-      <c r="J577" s="1">
+      <c r="J577" s="3">
         <v>100000</v>
       </c>
       <c r="K577" s="8"/>
@@ -52873,7 +52876,7 @@
       <c r="I578" t="s">
         <v>2209</v>
       </c>
-      <c r="J578" s="1">
+      <c r="J578" s="3">
         <v>3000000</v>
       </c>
       <c r="K578" s="8"/>
@@ -52953,7 +52956,7 @@
       <c r="I579" t="s">
         <v>1200</v>
       </c>
-      <c r="J579" s="1">
+      <c r="J579" s="3">
         <v>5000</v>
       </c>
       <c r="K579" s="8"/>
@@ -53031,7 +53034,7 @@
       <c r="I580" t="s">
         <v>1200</v>
       </c>
-      <c r="J580" s="1">
+      <c r="J580" s="3">
         <v>7000</v>
       </c>
       <c r="K580" s="8"/>
@@ -53109,7 +53112,7 @@
       <c r="I581" t="s">
         <v>1200</v>
       </c>
-      <c r="J581" s="1">
+      <c r="J581" s="3">
         <v>6000</v>
       </c>
       <c r="K581" s="8"/>
@@ -53187,7 +53190,7 @@
       <c r="I582" t="s">
         <v>1200</v>
       </c>
-      <c r="J582" s="1">
+      <c r="J582" s="3">
         <v>2000</v>
       </c>
       <c r="K582" s="8"/>
@@ -53265,7 +53268,7 @@
       <c r="I583" t="s">
         <v>1200</v>
       </c>
-      <c r="J583" s="1">
+      <c r="J583" s="3">
         <v>4000</v>
       </c>
       <c r="K583" s="8"/>
@@ -53343,7 +53346,7 @@
       <c r="I584" t="s">
         <v>1200</v>
       </c>
-      <c r="J584" s="1">
+      <c r="J584" s="3">
         <v>300</v>
       </c>
       <c r="K584" s="8"/>
@@ -53419,7 +53422,7 @@
       <c r="I585" t="s">
         <v>1200</v>
       </c>
-      <c r="J585" s="1">
+      <c r="J585" s="3">
         <v>9000</v>
       </c>
       <c r="K585" s="8"/>
@@ -53499,7 +53502,7 @@
       <c r="I586" t="s">
         <v>2207</v>
       </c>
-      <c r="J586" s="1">
+      <c r="J586" s="3">
         <v>100000</v>
       </c>
       <c r="K586" s="8"/>
@@ -53581,7 +53584,7 @@
       <c r="I587" t="s">
         <v>2207</v>
       </c>
-      <c r="J587" s="1">
+      <c r="J587" s="3">
         <v>300000</v>
       </c>
       <c r="K587" s="8"/>
@@ -53663,7 +53666,7 @@
       <c r="I588" t="s">
         <v>2207</v>
       </c>
-      <c r="J588" s="1">
+      <c r="J588" s="3">
         <v>300000</v>
       </c>
       <c r="K588" s="8"/>
@@ -53743,7 +53746,7 @@
       <c r="I589" t="s">
         <v>2207</v>
       </c>
-      <c r="J589" s="1">
+      <c r="J589" s="3">
         <v>100000</v>
       </c>
       <c r="K589" s="8"/>
@@ -53823,7 +53826,7 @@
       <c r="I590" t="s">
         <v>2207</v>
       </c>
-      <c r="J590" s="1">
+      <c r="J590" s="3">
         <v>200000</v>
       </c>
       <c r="K590" s="8"/>
@@ -53903,7 +53906,7 @@
       <c r="I591" s="14" t="s">
         <v>2207</v>
       </c>
-      <c r="J591" s="15">
+      <c r="J591" s="17">
         <v>200000</v>
       </c>
       <c r="K591" s="16"/>
@@ -53983,8 +53986,8 @@
       <c r="I592" t="s">
         <v>1200</v>
       </c>
-      <c r="J592" s="1">
-        <v>1</v>
+      <c r="J592" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K592" s="8"/>
       <c r="L592" s="3"/>
@@ -54061,8 +54064,8 @@
       <c r="I593" s="14" t="s">
         <v>1200</v>
       </c>
-      <c r="J593" s="15">
-        <v>5</v>
+      <c r="J593" s="17" t="s">
+        <v>2238</v>
       </c>
       <c r="K593" s="16"/>
       <c r="L593" s="17"/>
@@ -54139,8 +54142,8 @@
       <c r="I594" t="s">
         <v>2196</v>
       </c>
-      <c r="J594" s="1">
-        <v>1</v>
+      <c r="J594" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K594" s="8"/>
       <c r="L594" s="3"/>
@@ -54215,8 +54218,8 @@
       <c r="I595" t="s">
         <v>2196</v>
       </c>
-      <c r="J595" s="1">
-        <v>2</v>
+      <c r="J595" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K595" s="8"/>
       <c r="L595" s="3"/>
@@ -54291,8 +54294,8 @@
       <c r="I596" t="s">
         <v>2196</v>
       </c>
-      <c r="J596" s="1">
-        <v>4</v>
+      <c r="J596" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K596" s="8"/>
       <c r="L596" s="3"/>
@@ -54367,8 +54370,8 @@
       <c r="I597" t="s">
         <v>2196</v>
       </c>
-      <c r="J597" s="1">
-        <v>7</v>
+      <c r="J597" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K597" s="8"/>
       <c r="L597" s="3"/>
@@ -54443,8 +54446,8 @@
       <c r="I598" t="s">
         <v>2196</v>
       </c>
-      <c r="J598" s="1">
-        <v>10</v>
+      <c r="J598" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K598" s="8"/>
       <c r="L598" s="3"/>
@@ -54519,8 +54522,8 @@
       <c r="I599" t="s">
         <v>2196</v>
       </c>
-      <c r="J599" s="1">
-        <v>10</v>
+      <c r="J599" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K599" s="8"/>
       <c r="L599" s="3"/>
@@ -54595,8 +54598,8 @@
       <c r="I600" t="s">
         <v>2196</v>
       </c>
-      <c r="J600" s="1">
-        <v>3</v>
+      <c r="J600" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K600" s="8"/>
       <c r="L600" s="3"/>
@@ -54671,8 +54674,8 @@
       <c r="I601" t="s">
         <v>2196</v>
       </c>
-      <c r="J601" s="1">
-        <v>5</v>
+      <c r="J601" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K601" s="8"/>
       <c r="L601" s="3"/>
@@ -54747,8 +54750,8 @@
       <c r="I602" t="s">
         <v>2196</v>
       </c>
-      <c r="J602" s="1">
-        <v>1</v>
+      <c r="J602" s="3" t="s">
+        <v>2238</v>
       </c>
       <c r="K602" s="8"/>
       <c r="L602" s="3"/>
